--- a/REGULAR/OJT/NEW DONE/PANGANIBAN CRISTETA.xlsx
+++ b/REGULAR/OJT/NEW DONE/PANGANIBAN CRISTETA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FAAB34D-DC00-4A58-850A-9669DAA6745B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E23DEE6-A792-47AD-BB07-D32ED1234FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="278">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1283,6 +1283,18 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1318,18 +1330,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3695,9 +3695,9 @@
   <dimension ref="A2:K474"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <pane ySplit="3744" topLeftCell="A419" activePane="bottomLeft"/>
+      <pane ySplit="3744" topLeftCell="A432" activePane="bottomLeft"/>
       <selection activeCell="L1" sqref="L1:P1048576"/>
-      <selection pane="bottomLeft" activeCell="I434" sqref="I434"/>
+      <selection pane="bottomLeft" activeCell="B439" sqref="B439"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3719,66 +3719,66 @@
       <c r="A2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="58" t="s">
         <v>275</v>
       </c>
-      <c r="C2" s="54"/>
+      <c r="C2" s="58"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="61" t="s">
+      <c r="F2" s="65" t="s">
         <v>274</v>
       </c>
-      <c r="G2" s="61"/>
+      <c r="G2" s="65"/>
       <c r="H2" s="27" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="24"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="60"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="58" t="s">
         <v>271</v>
       </c>
-      <c r="C3" s="54"/>
+      <c r="C3" s="58"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="62"/>
-      <c r="G3" s="59"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="63"/>
       <c r="H3" s="25" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="25"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="62"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="58" t="s">
         <v>272</v>
       </c>
-      <c r="C4" s="54"/>
+      <c r="C4" s="58"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="59" t="s">
+      <c r="F4" s="63" t="s">
         <v>273</v>
       </c>
-      <c r="G4" s="59"/>
+      <c r="G4" s="63"/>
       <c r="H4" s="25" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="25"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="60"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="64"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -3804,18 +3804,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -3854,7 +3854,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="65"/>
+      <c r="A9" s="53"/>
       <c r="B9" s="23" t="s">
         <v>23</v>
       </c>
@@ -3862,7 +3862,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>195.958</v>
+        <v>197.208</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3872,16 +3872,16 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>248</v>
+        <v>251.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="66" t="s">
+      <c r="A10" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="55" t="s">
         <v>43</v>
       </c>
       <c r="C10" s="13"/>
@@ -3902,19 +3902,20 @@
       <c r="K10" s="20"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="66" t="s">
+      <c r="A11" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="13"/>
+      <c r="C11" s="13">
+        <v>15.43</v>
+      </c>
       <c r="D11" s="38"/>
       <c r="E11" s="9"/>
       <c r="F11" s="20"/>
-      <c r="G11" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G11" s="13">
+        <v>14.5</v>
       </c>
       <c r="H11" s="38"/>
       <c r="I11" s="9"/>
@@ -3996,7 +3997,7 @@
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="15"/>
-      <c r="G15" s="41">
+      <c r="G15" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
@@ -13484,7 +13485,7 @@
       <c r="K434" s="20"/>
     </row>
     <row r="435" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A435" s="68" t="s">
+      <c r="A435" s="56" t="s">
         <v>276</v>
       </c>
       <c r="B435" s="20"/>
@@ -13512,7 +13513,10 @@
       <c r="D436" s="13"/>
       <c r="E436" s="13"/>
       <c r="F436" s="13"/>
-      <c r="G436" s="13"/>
+      <c r="G436" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H436" s="38"/>
       <c r="I436" s="9"/>
       <c r="J436" s="11"/>
@@ -13522,29 +13526,41 @@
       <c r="A437" s="40">
         <v>44958</v>
       </c>
-      <c r="B437" s="20"/>
+      <c r="B437" s="20" t="s">
+        <v>78</v>
+      </c>
       <c r="C437" s="13">
         <v>1.25</v>
       </c>
       <c r="D437" s="13"/>
       <c r="E437" s="13"/>
       <c r="F437" s="13"/>
-      <c r="G437" s="13"/>
+      <c r="G437" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H437" s="38"/>
       <c r="I437" s="9"/>
       <c r="J437" s="11"/>
-      <c r="K437" s="20"/>
+      <c r="K437" s="51">
+        <v>44984</v>
+      </c>
     </row>
     <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="40">
         <v>44986</v>
       </c>
       <c r="B438" s="20"/>
-      <c r="C438" s="13"/>
+      <c r="C438" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D438" s="13"/>
       <c r="E438" s="13"/>
       <c r="F438" s="13"/>
-      <c r="G438" s="13"/>
+      <c r="G438" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H438" s="38"/>
       <c r="I438" s="9"/>
       <c r="J438" s="11"/>
@@ -14245,7 +14261,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14263,17 +14279,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="J1" s="64" t="s">
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="J1" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
@@ -14305,12 +14321,8 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="11">
-        <v>15.43</v>
-      </c>
-      <c r="B3" s="11">
-        <v>14.5</v>
-      </c>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
       <c r="D3">
         <v>0</v>
       </c>
@@ -14358,12 +14370,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="43"/>
-      <c r="I6" s="64" t="s">
+      <c r="I6" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="36">

--- a/REGULAR/OJT/NEW DONE/PANGANIBAN CRISTETA.xlsx
+++ b/REGULAR/OJT/NEW DONE/PANGANIBAN CRISTETA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E23DEE6-A792-47AD-BB07-D32ED1234FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9805B3FD-D68B-448F-9BD5-EA158332F69B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="279">
   <si>
     <t>PERIOD</t>
   </si>
@@ -869,6 +869,9 @@
   </si>
   <si>
     <t>12/23,26,27,28,29,</t>
+  </si>
+  <si>
+    <t>TOTAL LEAVE BALANCE</t>
   </si>
 </sst>
 </file>
@@ -3695,7 +3698,7 @@
   <dimension ref="A2:K474"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <pane ySplit="3744" topLeftCell="A432" activePane="bottomLeft"/>
+      <pane ySplit="3744" topLeftCell="A394" activePane="bottomLeft"/>
       <selection activeCell="L1" sqref="L1:P1048576"/>
       <selection pane="bottomLeft" activeCell="B439" sqref="B439"/>
     </sheetView>
@@ -14261,7 +14264,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14357,6 +14360,9 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>278</v>
+      </c>
       <c r="C6" s="37" t="s">
         <v>28</v>
       </c>
@@ -14378,6 +14384,10 @@
       <c r="L6" s="68"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <f>SUM(Sheet1!E9,Sheet1!I9)</f>
+        <v>448.95799999999997</v>
+      </c>
       <c r="C7" s="36">
         <v>1</v>
       </c>

--- a/REGULAR/OJT/NEW DONE/PANGANIBAN CRISTETA.xlsx
+++ b/REGULAR/OJT/NEW DONE/PANGANIBAN CRISTETA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9805B3FD-D68B-448F-9BD5-EA158332F69B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="280">
   <si>
     <t>PERIOD</t>
   </si>
@@ -872,12 +871,15 @@
   </si>
   <si>
     <t>TOTAL LEAVE BALANCE</t>
+  </si>
+  <si>
+    <t>DOMESTIC 5/26/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1782,7 +1784,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1825,7 +1827,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1889,7 +1891,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1949,7 +1951,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2015,7 +2017,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2078,7 +2080,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2176,7 +2178,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2235,7 +2237,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2300,7 +2302,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2343,7 +2345,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2418,7 +2420,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2604,7 +2606,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2670,7 +2672,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2728,7 +2730,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2794,7 +2796,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2850,7 +2852,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2925,7 +2927,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2968,7 +2970,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3034,7 +3036,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3090,7 +3092,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3188,7 +3190,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3251,7 +3253,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3317,25 +3319,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K474" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K475" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3347,13 +3349,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3362,14 +3364,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3673,7 +3675,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3683,7 +3685,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3691,34 +3693,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K474"/>
+  <dimension ref="A2:K475"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <pane ySplit="3744" topLeftCell="A394" activePane="bottomLeft"/>
+      <pane ySplit="3900" topLeftCell="A433" activePane="bottomLeft"/>
       <selection activeCell="L1" sqref="L1:P1048576"/>
-      <selection pane="bottomLeft" activeCell="B439" sqref="B439"/>
+      <selection pane="bottomLeft" activeCell="B442" sqref="B442"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="29" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="29" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="32.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="29" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="29" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="32.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
         <v>9</v>
       </c>
@@ -3741,7 +3743,7 @@
       <c r="J2" s="59"/>
       <c r="K2" s="60"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3761,7 +3763,7 @@
       <c r="J3" s="61"/>
       <c r="K3" s="62"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3783,7 +3785,7 @@
       <c r="J4" s="63"/>
       <c r="K4" s="64"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="26" t="s">
         <v>18</v>
@@ -3791,7 +3793,7 @@
       <c r="I5" s="26"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="30"/>
@@ -3804,7 +3806,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="57" t="s">
@@ -3821,7 +3823,7 @@
       <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3856,7 +3858,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="53"/>
       <c r="B9" s="23" t="s">
         <v>23</v>
@@ -3865,7 +3867,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>197.208</v>
+        <v>197.458</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3875,12 +3877,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>251.75</v>
+        <v>253</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="54" t="s">
         <v>42</v>
       </c>
@@ -3904,7 +3906,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="54" t="s">
         <v>44</v>
       </c>
@@ -3925,7 +3927,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="49" t="s">
         <v>46</v>
       </c>
@@ -3943,7 +3945,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="39">
         <v>35065</v>
       </c>
@@ -3963,7 +3965,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="39">
         <f>EDATE(A13,1)</f>
         <v>35096</v>
@@ -3984,7 +3986,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="39">
         <f t="shared" ref="A15:A85" si="0">EDATE(A14,1)</f>
         <v>35125</v>
@@ -4011,7 +4013,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="39">
         <f t="shared" si="0"/>
         <v>35156</v>
@@ -4032,7 +4034,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="39">
         <f t="shared" si="0"/>
         <v>35186</v>
@@ -4053,7 +4055,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="39">
         <f t="shared" si="0"/>
         <v>35217</v>
@@ -4080,7 +4082,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="39">
         <f t="shared" si="0"/>
         <v>35247</v>
@@ -4101,7 +4103,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="39">
         <f t="shared" si="0"/>
         <v>35278</v>
@@ -4122,7 +4124,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="39">
         <f t="shared" si="0"/>
         <v>35309</v>
@@ -4149,7 +4151,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="39">
         <f t="shared" si="0"/>
         <v>35339</v>
@@ -4170,7 +4172,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="39">
         <f t="shared" si="0"/>
         <v>35370</v>
@@ -4191,7 +4193,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="39">
         <f t="shared" si="0"/>
         <v>35400</v>
@@ -4212,7 +4214,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="49" t="s">
         <v>50</v>
       </c>
@@ -4232,7 +4234,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="39">
         <f>EDATE(A24,1)</f>
         <v>35431</v>
@@ -4253,7 +4255,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="39">
         <f t="shared" si="0"/>
         <v>35462</v>
@@ -4274,7 +4276,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="39">
         <f t="shared" si="0"/>
         <v>35490</v>
@@ -4301,7 +4303,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="39">
         <f t="shared" si="0"/>
         <v>35521</v>
@@ -4328,7 +4330,7 @@
         <v>35707</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="39">
         <f t="shared" si="0"/>
         <v>35551</v>
@@ -4349,7 +4351,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="39">
         <f t="shared" si="0"/>
         <v>35582</v>
@@ -4374,7 +4376,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="39">
         <f t="shared" si="0"/>
         <v>35612</v>
@@ -4395,7 +4397,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="39">
         <f t="shared" si="0"/>
         <v>35643</v>
@@ -4416,7 +4418,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="39">
         <f t="shared" si="0"/>
         <v>35674</v>
@@ -4437,7 +4439,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="39">
         <f t="shared" si="0"/>
         <v>35704</v>
@@ -4462,7 +4464,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="39">
         <f t="shared" si="0"/>
         <v>35735</v>
@@ -4487,7 +4489,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="39">
         <f t="shared" si="0"/>
         <v>35765</v>
@@ -4508,7 +4510,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="49" t="s">
         <v>49</v>
       </c>
@@ -4526,7 +4528,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="39">
         <f>EDATE(A37,1)</f>
         <v>35796</v>
@@ -4547,7 +4549,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="39">
         <f t="shared" si="0"/>
         <v>35827</v>
@@ -4568,7 +4570,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="39">
         <f t="shared" si="0"/>
         <v>35855</v>
@@ -4595,7 +4597,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="39">
         <f t="shared" si="0"/>
         <v>35886</v>
@@ -4616,7 +4618,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="39">
         <f t="shared" si="0"/>
         <v>35916</v>
@@ -4637,7 +4639,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="39">
         <f t="shared" si="0"/>
         <v>35947</v>
@@ -4658,7 +4660,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="39">
         <f t="shared" si="0"/>
         <v>35977</v>
@@ -4679,7 +4681,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="39">
         <f t="shared" si="0"/>
         <v>36008</v>
@@ -4700,7 +4702,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="39">
         <f t="shared" si="0"/>
         <v>36039</v>
@@ -4727,7 +4729,7 @@
         <v>36047</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="39"/>
       <c r="B48" s="20" t="s">
         <v>61</v>
@@ -4745,7 +4747,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="51"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="39">
         <f>EDATE(A47,1)</f>
         <v>36069</v>
@@ -4770,7 +4772,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="39">
         <f t="shared" si="0"/>
         <v>36100</v>
@@ -4797,7 +4799,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="39"/>
       <c r="B51" s="20" t="s">
         <v>64</v>
@@ -4817,7 +4819,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="39">
         <f>EDATE(A50,1)</f>
         <v>36130</v>
@@ -4844,7 +4846,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="39"/>
       <c r="B53" s="20" t="s">
         <v>67</v>
@@ -4864,7 +4866,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="49" t="s">
         <v>48</v>
       </c>
@@ -4882,7 +4884,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="39">
         <f>EDATE(A52,1)</f>
         <v>36161</v>
@@ -4909,7 +4911,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="39"/>
       <c r="B56" s="20" t="s">
         <v>69</v>
@@ -4929,7 +4931,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="39">
         <f>EDATE(A55,1)</f>
         <v>36192</v>
@@ -4956,7 +4958,7 @@
         <v>36162</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="39">
         <f t="shared" si="0"/>
         <v>36220</v>
@@ -4983,7 +4985,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="39"/>
       <c r="B59" s="20" t="s">
         <v>63</v>
@@ -5005,7 +5007,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="39"/>
       <c r="B60" s="20" t="s">
         <v>53</v>
@@ -5027,7 +5029,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="39"/>
       <c r="B61" s="20" t="s">
         <v>71</v>
@@ -5047,7 +5049,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="39">
         <f>EDATE(A58,1)</f>
         <v>36251</v>
@@ -5074,7 +5076,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="39"/>
       <c r="B63" s="20" t="s">
         <v>72</v>
@@ -5094,7 +5096,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="39">
         <f>EDATE(A62,1)</f>
         <v>36281</v>
@@ -5119,7 +5121,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="39">
         <f t="shared" si="0"/>
         <v>36312</v>
@@ -5144,7 +5146,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="39"/>
       <c r="B66" s="20" t="s">
         <v>80</v>
@@ -5164,7 +5166,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="39">
         <f>EDATE(A65,1)</f>
         <v>36342</v>
@@ -5189,7 +5191,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="39">
         <f t="shared" si="0"/>
         <v>36373</v>
@@ -5216,7 +5218,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="39"/>
       <c r="B69" s="20" t="s">
         <v>81</v>
@@ -5236,7 +5238,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="39">
         <f>EDATE(A68,1)</f>
         <v>36404</v>
@@ -5261,7 +5263,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="39">
         <f t="shared" si="0"/>
         <v>36434</v>
@@ -5288,7 +5290,7 @@
         <v>36504</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="39"/>
       <c r="B72" s="20" t="s">
         <v>78</v>
@@ -5310,7 +5312,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="39">
         <f>EDATE(A71,1)</f>
         <v>36465</v>
@@ -5335,7 +5337,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="39">
         <f t="shared" si="0"/>
         <v>36495</v>
@@ -5360,7 +5362,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="39"/>
       <c r="B75" s="20" t="s">
         <v>63</v>
@@ -5380,7 +5382,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="39"/>
       <c r="B76" s="20" t="s">
         <v>87</v>
@@ -5400,7 +5402,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="49" t="s">
         <v>47</v>
       </c>
@@ -5415,7 +5417,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="39">
         <f>EDATE(A74,1)</f>
         <v>36526</v>
@@ -5440,7 +5442,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="39">
         <f t="shared" si="0"/>
         <v>36557</v>
@@ -5465,7 +5467,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="39">
         <f t="shared" si="0"/>
         <v>36586</v>
@@ -5490,7 +5492,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="39">
         <f t="shared" si="0"/>
         <v>36617</v>
@@ -5511,7 +5513,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="39">
         <f t="shared" si="0"/>
         <v>36647</v>
@@ -5538,7 +5540,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="39"/>
       <c r="B83" s="20" t="s">
         <v>92</v>
@@ -5558,7 +5560,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="39">
         <f>EDATE(A82,1)</f>
         <v>36678</v>
@@ -5583,7 +5585,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="39">
         <f t="shared" si="0"/>
         <v>36708</v>
@@ -5610,7 +5612,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="39"/>
       <c r="B86" s="20" t="s">
         <v>95</v>
@@ -5630,7 +5632,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="39">
         <f>EDATE(A85,1)</f>
         <v>36739</v>
@@ -5657,7 +5659,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="39"/>
       <c r="B88" s="20" t="s">
         <v>53</v>
@@ -5681,7 +5683,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="39"/>
       <c r="B89" s="20" t="s">
         <v>96</v>
@@ -5701,7 +5703,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="39">
         <f>EDATE(A87,1)</f>
         <v>36770</v>
@@ -5722,7 +5724,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="39">
         <f>EDATE(A90,1)</f>
         <v>36800</v>
@@ -5749,7 +5751,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="39">
         <f>EDATE(A91,1)</f>
         <v>36831</v>
@@ -5776,7 +5778,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="39">
         <f>EDATE(A92,1)</f>
         <v>36861</v>
@@ -5797,7 +5799,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="49" t="s">
         <v>97</v>
       </c>
@@ -5815,7 +5817,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="39">
         <f t="shared" ref="A95" si="1">EDATE(A93,1)</f>
         <v>36892</v>
@@ -5836,7 +5838,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="39">
         <f t="shared" ref="A96:A101" si="2">EDATE(A95,1)</f>
         <v>36923</v>
@@ -5857,7 +5859,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="39">
         <f t="shared" si="2"/>
         <v>36951</v>
@@ -5884,7 +5886,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="39">
         <f t="shared" si="2"/>
         <v>36982</v>
@@ -5905,7 +5907,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="39">
         <f t="shared" si="2"/>
         <v>37012</v>
@@ -5932,7 +5934,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="39">
         <f t="shared" si="2"/>
         <v>37043</v>
@@ -5953,7 +5955,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="39">
         <f t="shared" si="2"/>
         <v>37073</v>
@@ -5980,7 +5982,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="39"/>
       <c r="B102" s="20" t="s">
         <v>70</v>
@@ -6002,7 +6004,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="39">
         <f>EDATE(A101,1)</f>
         <v>37104</v>
@@ -6029,7 +6031,7 @@
         <v>37111</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="39"/>
       <c r="B104" s="20" t="s">
         <v>53</v>
@@ -6051,7 +6053,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="39"/>
       <c r="B105" s="20" t="s">
         <v>53</v>
@@ -6073,7 +6075,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="39">
         <f>EDATE(A103,1)</f>
         <v>37135</v>
@@ -6100,7 +6102,7 @@
         <v>37081</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="39"/>
       <c r="B107" s="20" t="s">
         <v>53</v>
@@ -6122,7 +6124,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="39">
         <f>EDATE(A106,1)</f>
         <v>37165</v>
@@ -6149,7 +6151,7 @@
         <v>37144</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="39"/>
       <c r="B109" s="20" t="s">
         <v>78</v>
@@ -6169,7 +6171,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="39">
         <f>EDATE(A108,1)</f>
         <v>37196</v>
@@ -6196,7 +6198,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="39">
         <f t="shared" ref="A111:A126" si="3">EDATE(A110,1)</f>
         <v>37226</v>
@@ -6223,7 +6225,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="39"/>
       <c r="B112" s="20" t="s">
         <v>115</v>
@@ -6245,7 +6247,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="49" t="s">
         <v>105</v>
       </c>
@@ -6263,7 +6265,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="39">
         <f>EDATE(A111,1)</f>
         <v>37257</v>
@@ -6290,7 +6292,7 @@
         <v>37469</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="39">
         <f>EDATE(A114,1)</f>
         <v>37288</v>
@@ -6311,7 +6313,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="39">
         <f>EDATE(A115,1)</f>
         <v>37316</v>
@@ -6338,7 +6340,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="39">
         <f t="shared" si="3"/>
         <v>37347</v>
@@ -6359,7 +6361,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="39">
         <f t="shared" si="3"/>
         <v>37377</v>
@@ -6386,7 +6388,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="39"/>
       <c r="B119" s="20" t="s">
         <v>78</v>
@@ -6406,7 +6408,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="39">
         <f>EDATE(A118,1)</f>
         <v>37408</v>
@@ -6427,7 +6429,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="39">
         <f t="shared" si="3"/>
         <v>37438</v>
@@ -6448,7 +6450,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="39">
         <f t="shared" si="3"/>
         <v>37469</v>
@@ -6475,7 +6477,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="39">
         <f t="shared" si="3"/>
         <v>37500</v>
@@ -6496,7 +6498,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="39">
         <f t="shared" si="3"/>
         <v>37530</v>
@@ -6523,7 +6525,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="39">
         <f t="shared" si="3"/>
         <v>37561</v>
@@ -6550,7 +6552,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="39">
         <f t="shared" si="3"/>
         <v>37591</v>
@@ -6577,7 +6579,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="39"/>
       <c r="B127" s="20" t="s">
         <v>134</v>
@@ -6597,7 +6599,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="49" t="s">
         <v>106</v>
       </c>
@@ -6615,7 +6617,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="39">
         <f>EDATE(A126,1)</f>
         <v>37622</v>
@@ -6642,7 +6644,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="39"/>
       <c r="B130" s="20" t="s">
         <v>53</v>
@@ -6666,7 +6668,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="39">
         <f>EDATE(A129,1)</f>
         <v>37653</v>
@@ -6693,7 +6695,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="39"/>
       <c r="B132" s="20" t="s">
         <v>53</v>
@@ -6715,7 +6717,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="39"/>
       <c r="B133" s="20" t="s">
         <v>53</v>
@@ -6737,7 +6739,7 @@
         <v>37683</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="39">
         <f>EDATE(A131,1)</f>
         <v>37681</v>
@@ -6764,7 +6766,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="39">
         <f t="shared" ref="A135:A210" si="4">EDATE(A134,1)</f>
         <v>37712</v>
@@ -6791,7 +6793,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="39">
         <f t="shared" si="4"/>
         <v>37742</v>
@@ -6812,7 +6814,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="39">
         <f t="shared" si="4"/>
         <v>37773</v>
@@ -6833,7 +6835,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="39">
         <f t="shared" si="4"/>
         <v>37803</v>
@@ -6860,7 +6862,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="39">
         <f t="shared" si="4"/>
         <v>37834</v>
@@ -6887,7 +6889,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="39"/>
       <c r="B140" s="20" t="s">
         <v>70</v>
@@ -6909,7 +6911,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="39">
         <f>EDATE(A139,1)</f>
         <v>37865</v>
@@ -6936,7 +6938,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="39">
         <f t="shared" si="4"/>
         <v>37895</v>
@@ -6963,7 +6965,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="39"/>
       <c r="B143" s="20" t="s">
         <v>70</v>
@@ -6985,7 +6987,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="39"/>
       <c r="B144" s="20" t="s">
         <v>78</v>
@@ -7007,7 +7009,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="39">
         <f>EDATE(A142,1)</f>
         <v>37926</v>
@@ -7028,7 +7030,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="39">
         <f t="shared" si="4"/>
         <v>37956</v>
@@ -7055,7 +7057,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="49" t="s">
         <v>107</v>
       </c>
@@ -7073,7 +7075,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="39">
         <f>EDATE(A146,1)</f>
         <v>37987</v>
@@ -7100,7 +7102,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="39"/>
       <c r="B149" s="20" t="s">
         <v>70</v>
@@ -7122,7 +7124,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="39"/>
       <c r="B150" s="20" t="s">
         <v>53</v>
@@ -7144,7 +7146,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="39"/>
       <c r="B151" s="20" t="s">
         <v>53</v>
@@ -7166,7 +7168,7 @@
         <v>38048</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="39">
         <f>EDATE(A148,1)</f>
         <v>38018</v>
@@ -7187,7 +7189,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="39">
         <f t="shared" si="4"/>
         <v>38047</v>
@@ -7208,7 +7210,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="39">
         <f t="shared" si="4"/>
         <v>38078</v>
@@ -7229,7 +7231,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="39">
         <f t="shared" si="4"/>
         <v>38108</v>
@@ -7250,7 +7252,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="39">
         <f t="shared" si="4"/>
         <v>38139</v>
@@ -7271,7 +7273,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="39">
         <f t="shared" si="4"/>
         <v>38169</v>
@@ -7298,7 +7300,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="39">
         <f t="shared" si="4"/>
         <v>38200</v>
@@ -7323,7 +7325,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="39"/>
       <c r="B159" s="20" t="s">
         <v>86</v>
@@ -7345,7 +7347,7 @@
         <v>38238</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="39">
         <f>EDATE(A158,1)</f>
         <v>38231</v>
@@ -7366,7 +7368,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="39">
         <f t="shared" si="4"/>
         <v>38261</v>
@@ -7391,7 +7393,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="39">
         <f t="shared" si="4"/>
         <v>38292</v>
@@ -7412,7 +7414,7 @@
       <c r="J162" s="12"/>
       <c r="K162" s="15"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="39">
         <f t="shared" si="4"/>
         <v>38322</v>
@@ -7439,7 +7441,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="49" t="s">
         <v>108</v>
       </c>
@@ -7457,7 +7459,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="39">
         <f>EDATE(A163,1)</f>
         <v>38353</v>
@@ -7478,7 +7480,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="39">
         <f t="shared" si="4"/>
         <v>38384</v>
@@ -7499,7 +7501,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="39">
         <f t="shared" si="4"/>
         <v>38412</v>
@@ -7520,7 +7522,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="39">
         <f t="shared" si="4"/>
         <v>38443</v>
@@ -7541,7 +7543,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="39">
         <f t="shared" si="4"/>
         <v>38473</v>
@@ -7568,7 +7570,7 @@
         <v>38447</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="39">
         <f t="shared" si="4"/>
         <v>38504</v>
@@ -7595,7 +7597,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="39">
         <f t="shared" si="4"/>
         <v>38534</v>
@@ -7622,7 +7624,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="39">
         <f t="shared" si="4"/>
         <v>38565</v>
@@ -7643,7 +7645,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="39">
         <f t="shared" si="4"/>
         <v>38596</v>
@@ -7670,7 +7672,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="39">
         <f t="shared" si="4"/>
         <v>38626</v>
@@ -7695,7 +7697,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="39"/>
       <c r="B175" s="20" t="s">
         <v>53</v>
@@ -7717,7 +7719,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="39">
         <f>EDATE(A174,1)</f>
         <v>38657</v>
@@ -7744,7 +7746,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="39">
         <f t="shared" si="4"/>
         <v>38687</v>
@@ -7765,7 +7767,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="49" t="s">
         <v>109</v>
       </c>
@@ -7783,7 +7785,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="39">
         <f>EDATE(A177,1)</f>
         <v>38718</v>
@@ -7810,7 +7812,7 @@
         <v>38657</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="39">
         <f t="shared" si="4"/>
         <v>38749</v>
@@ -7835,7 +7837,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="39">
         <f t="shared" si="4"/>
         <v>38777</v>
@@ -7862,7 +7864,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="39">
         <f t="shared" si="4"/>
         <v>38808</v>
@@ -7889,7 +7891,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="39">
         <f t="shared" si="4"/>
         <v>38838</v>
@@ -7910,7 +7912,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="39">
         <f t="shared" si="4"/>
         <v>38869</v>
@@ -7931,7 +7933,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="39">
         <f t="shared" si="4"/>
         <v>38899</v>
@@ -7952,7 +7954,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="39">
         <f t="shared" si="4"/>
         <v>38930</v>
@@ -7979,7 +7981,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="39">
         <f t="shared" si="4"/>
         <v>38961</v>
@@ -8000,7 +8002,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="39">
         <f t="shared" si="4"/>
         <v>38991</v>
@@ -8025,7 +8027,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="39"/>
       <c r="B189" s="20" t="s">
         <v>59</v>
@@ -8047,7 +8049,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="39">
         <f>EDATE(A188,1)</f>
         <v>39022</v>
@@ -8068,7 +8070,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="39">
         <f t="shared" si="4"/>
         <v>39052</v>
@@ -8095,7 +8097,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="49" t="s">
         <v>110</v>
       </c>
@@ -8113,7 +8115,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="39">
         <f>EDATE(A191,1)</f>
         <v>39083</v>
@@ -8134,7 +8136,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="39">
         <f t="shared" si="4"/>
         <v>39114</v>
@@ -8155,7 +8157,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="39">
         <f t="shared" si="4"/>
         <v>39142</v>
@@ -8182,7 +8184,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="39">
         <f t="shared" si="4"/>
         <v>39173</v>
@@ -8203,7 +8205,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="39">
         <f t="shared" si="4"/>
         <v>39203</v>
@@ -8230,7 +8232,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="39">
         <f t="shared" si="4"/>
         <v>39234</v>
@@ -8255,7 +8257,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="39">
         <f t="shared" si="4"/>
         <v>39264</v>
@@ -8282,7 +8284,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="39"/>
       <c r="B200" s="20" t="s">
         <v>78</v>
@@ -8304,7 +8306,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="39">
         <f>EDATE(A199,1)</f>
         <v>39295</v>
@@ -8329,7 +8331,7 @@
         <v>39181</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="39">
         <f t="shared" si="4"/>
         <v>39326</v>
@@ -8350,7 +8352,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="39">
         <f t="shared" si="4"/>
         <v>39356</v>
@@ -8377,7 +8379,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="39"/>
       <c r="B204" s="20" t="s">
         <v>134</v>
@@ -8401,7 +8403,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="39">
         <f>EDATE(A203,1)</f>
         <v>39387</v>
@@ -8428,7 +8430,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="39"/>
       <c r="B206" s="20" t="s">
         <v>59</v>
@@ -8452,7 +8454,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="39">
         <f>EDATE(A205,1)</f>
         <v>39417</v>
@@ -8473,7 +8475,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="49" t="s">
         <v>112</v>
       </c>
@@ -8491,7 +8493,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="39">
         <f>EDATE(A207,1)</f>
         <v>39448</v>
@@ -8518,7 +8520,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="39">
         <f t="shared" si="4"/>
         <v>39479</v>
@@ -8539,7 +8541,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="39">
         <f t="shared" ref="A211:A225" si="5">EDATE(A210,1)</f>
         <v>39508</v>
@@ -8564,7 +8566,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="39"/>
       <c r="B212" s="20" t="s">
         <v>70</v>
@@ -8586,7 +8588,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="39"/>
       <c r="B213" s="20" t="s">
         <v>78</v>
@@ -8606,7 +8608,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="39">
         <f>EDATE(A211,1)</f>
         <v>39539</v>
@@ -8633,7 +8635,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="39">
         <f t="shared" si="5"/>
         <v>39569</v>
@@ -8660,7 +8662,7 @@
         <v>39573</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="39"/>
       <c r="B216" s="20" t="s">
         <v>53</v>
@@ -8682,7 +8684,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="39"/>
       <c r="B217" s="20" t="s">
         <v>171</v>
@@ -8702,7 +8704,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="39">
         <f>EDATE(A215,1)</f>
         <v>39600</v>
@@ -8729,7 +8731,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="39"/>
       <c r="B219" s="20" t="s">
         <v>172</v>
@@ -8749,7 +8751,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="39">
         <f>EDATE(A218,1)</f>
         <v>39630</v>
@@ -8776,7 +8778,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="39"/>
       <c r="B221" s="20" t="s">
         <v>127</v>
@@ -8798,7 +8800,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="39"/>
       <c r="B222" s="20" t="s">
         <v>70</v>
@@ -8820,7 +8822,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="39">
         <f>EDATE(A220,1)</f>
         <v>39661</v>
@@ -8847,7 +8849,7 @@
         <v>39760</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="39">
         <f t="shared" si="5"/>
         <v>39692</v>
@@ -8868,7 +8870,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="39">
         <f t="shared" si="5"/>
         <v>39722</v>
@@ -8895,7 +8897,7 @@
         <v>39731</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="39"/>
       <c r="B226" s="20" t="s">
         <v>171</v>
@@ -8915,7 +8917,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="39">
         <f>EDATE(A225,1)</f>
         <v>39753</v>
@@ -8940,7 +8942,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="39"/>
       <c r="B228" s="20" t="s">
         <v>171</v>
@@ -8960,7 +8962,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="39">
         <f>EDATE(A227,1)</f>
         <v>39783</v>
@@ -8987,7 +8989,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="49" t="s">
         <v>111</v>
       </c>
@@ -9005,7 +9007,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="39">
         <f>EDATE(A229,1)</f>
         <v>39814</v>
@@ -9030,7 +9032,7 @@
         <v>39905</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40">
         <f>EDATE(A231,1)</f>
         <v>39845</v>
@@ -9057,7 +9059,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="39"/>
       <c r="B233" s="20" t="s">
         <v>78</v>
@@ -9077,7 +9079,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40">
         <f>EDATE(A232,1)</f>
         <v>39873</v>
@@ -9102,7 +9104,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="39"/>
       <c r="B235" s="20" t="s">
         <v>202</v>
@@ -9122,7 +9124,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="39"/>
       <c r="B236" s="20" t="s">
         <v>171</v>
@@ -9142,7 +9144,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="39"/>
       <c r="B237" s="20" t="s">
         <v>171</v>
@@ -9162,7 +9164,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40">
         <f>EDATE(A234,1)</f>
         <v>39904</v>
@@ -9183,7 +9185,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40">
         <f t="shared" ref="A239:A313" si="6">EDATE(A238,1)</f>
         <v>39934</v>
@@ -9204,7 +9206,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <f t="shared" si="6"/>
         <v>39965</v>
@@ -9231,7 +9233,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40">
         <f t="shared" si="6"/>
         <v>39995</v>
@@ -9252,7 +9254,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
         <f t="shared" si="6"/>
         <v>40026</v>
@@ -9273,7 +9275,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
         <f t="shared" si="6"/>
         <v>40057</v>
@@ -9300,7 +9302,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40">
         <f t="shared" si="6"/>
         <v>40087</v>
@@ -9327,7 +9329,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
         <f t="shared" si="6"/>
         <v>40118</v>
@@ -9348,7 +9350,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40">
         <f t="shared" si="6"/>
         <v>40148</v>
@@ -9375,7 +9377,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="49" t="s">
         <v>207</v>
       </c>
@@ -9393,7 +9395,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40">
         <f>EDATE(A246,1)</f>
         <v>40179</v>
@@ -9418,7 +9420,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40">
         <f t="shared" si="6"/>
         <v>40210</v>
@@ -9443,7 +9445,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="39"/>
       <c r="B250" s="20" t="s">
         <v>212</v>
@@ -9465,7 +9467,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="39"/>
       <c r="B251" s="20" t="s">
         <v>212</v>
@@ -9487,7 +9489,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
         <f>EDATE(A249,1)</f>
         <v>40238</v>
@@ -9508,7 +9510,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40">
         <f t="shared" si="6"/>
         <v>40269</v>
@@ -9529,7 +9531,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <f t="shared" si="6"/>
         <v>40299</v>
@@ -9554,7 +9556,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40">
         <f t="shared" si="6"/>
         <v>40330</v>
@@ -9575,7 +9577,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
         <f t="shared" si="6"/>
         <v>40360</v>
@@ -9596,7 +9598,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
         <f t="shared" si="6"/>
         <v>40391</v>
@@ -9617,7 +9619,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40">
         <f t="shared" si="6"/>
         <v>40422</v>
@@ -9638,7 +9640,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40">
         <f t="shared" si="6"/>
         <v>40452</v>
@@ -9663,7 +9665,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
         <f t="shared" si="6"/>
         <v>40483</v>
@@ -9690,7 +9692,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40">
         <f t="shared" si="6"/>
         <v>40513</v>
@@ -9711,7 +9713,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="49" t="s">
         <v>220</v>
       </c>
@@ -9729,7 +9731,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40">
         <f>EDATE(A261,1)</f>
         <v>40544</v>
@@ -9750,7 +9752,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
         <f t="shared" si="6"/>
         <v>40575</v>
@@ -9775,7 +9777,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40">
         <f t="shared" si="6"/>
         <v>40603</v>
@@ -9802,7 +9804,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40">
         <f t="shared" si="6"/>
         <v>40634</v>
@@ -9823,7 +9825,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
         <f t="shared" si="6"/>
         <v>40664</v>
@@ -9844,7 +9846,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40">
         <f t="shared" si="6"/>
         <v>40695</v>
@@ -9865,7 +9867,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40">
         <f t="shared" si="6"/>
         <v>40725</v>
@@ -9886,7 +9888,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40">
         <f t="shared" si="6"/>
         <v>40756</v>
@@ -9907,7 +9909,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40">
         <f t="shared" si="6"/>
         <v>40787</v>
@@ -9934,7 +9936,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="39"/>
       <c r="B272" s="20" t="s">
         <v>78</v>
@@ -9954,7 +9956,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40">
         <f>EDATE(A271,1)</f>
         <v>40817</v>
@@ -9975,7 +9977,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40">
         <f t="shared" si="6"/>
         <v>40848</v>
@@ -10000,7 +10002,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="39"/>
       <c r="B275" s="20" t="s">
         <v>212</v>
@@ -10022,7 +10024,7 @@
         <v>40868</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="39"/>
       <c r="B276" s="20" t="s">
         <v>234</v>
@@ -10044,7 +10046,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
         <f>EDATE(A274,1)</f>
         <v>40878</v>
@@ -10065,7 +10067,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="49" t="s">
         <v>221</v>
       </c>
@@ -10083,7 +10085,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40">
         <f>EDATE(A277,1)</f>
         <v>40909</v>
@@ -10108,7 +10110,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="39"/>
       <c r="B280" s="20" t="s">
         <v>240</v>
@@ -10130,7 +10132,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="39"/>
       <c r="B281" s="20" t="s">
         <v>53</v>
@@ -10152,7 +10154,7 @@
         <v>40924</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <f>EDATE(A279,1)</f>
         <v>40940</v>
@@ -10177,7 +10179,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40">
         <f t="shared" si="6"/>
         <v>40969</v>
@@ -10198,7 +10200,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40">
         <f t="shared" si="6"/>
         <v>41000</v>
@@ -10219,7 +10221,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40">
         <f t="shared" si="6"/>
         <v>41030</v>
@@ -10240,7 +10242,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
         <f t="shared" si="6"/>
         <v>41061</v>
@@ -10261,7 +10263,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40">
         <f t="shared" si="6"/>
         <v>41091</v>
@@ -10288,7 +10290,7 @@
         <v>41096</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40">
         <f t="shared" si="6"/>
         <v>41122</v>
@@ -10309,7 +10311,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
         <f t="shared" si="6"/>
         <v>41153</v>
@@ -10330,7 +10332,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40">
         <f t="shared" si="6"/>
         <v>41183</v>
@@ -10357,7 +10359,7 @@
         <v>41211</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
         <f t="shared" si="6"/>
         <v>41214</v>
@@ -10384,7 +10386,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="39"/>
       <c r="B292" s="20" t="s">
         <v>163</v>
@@ -10406,7 +10408,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40">
         <f>EDATE(A291,1)</f>
         <v>41244</v>
@@ -10427,7 +10429,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="49" t="s">
         <v>222</v>
       </c>
@@ -10445,7 +10447,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40">
         <f>EDATE(A293,1)</f>
         <v>41275</v>
@@ -10466,7 +10468,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40">
         <f t="shared" si="6"/>
         <v>41306</v>
@@ -10487,7 +10489,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40">
         <f t="shared" si="6"/>
         <v>41334</v>
@@ -10508,7 +10510,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40">
         <f t="shared" si="6"/>
         <v>41365</v>
@@ -10529,7 +10531,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40">
         <f t="shared" si="6"/>
         <v>41395</v>
@@ -10550,7 +10552,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40">
         <f t="shared" si="6"/>
         <v>41426</v>
@@ -10571,7 +10573,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40">
         <f t="shared" si="6"/>
         <v>41456</v>
@@ -10598,7 +10600,7 @@
         <v>41481</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
         <f t="shared" si="6"/>
         <v>41487</v>
@@ -10619,7 +10621,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
         <f t="shared" si="6"/>
         <v>41518</v>
@@ -10640,7 +10642,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40">
         <f t="shared" si="6"/>
         <v>41548</v>
@@ -10661,7 +10663,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40">
         <f t="shared" si="6"/>
         <v>41579</v>
@@ -10682,7 +10684,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40">
         <f t="shared" si="6"/>
         <v>41609</v>
@@ -10709,7 +10711,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="49" t="s">
         <v>223</v>
       </c>
@@ -10727,7 +10729,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40">
         <f>EDATE(A306,1)</f>
         <v>41640</v>
@@ -10748,7 +10750,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
         <f t="shared" si="6"/>
         <v>41671</v>
@@ -10769,7 +10771,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40">
         <f t="shared" si="6"/>
         <v>41699</v>
@@ -10790,7 +10792,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
         <f t="shared" si="6"/>
         <v>41730</v>
@@ -10811,7 +10813,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40">
         <f t="shared" si="6"/>
         <v>41760</v>
@@ -10832,7 +10834,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40">
         <f t="shared" si="6"/>
         <v>41791</v>
@@ -10853,7 +10855,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40">
         <f t="shared" ref="A314:A389" si="7">EDATE(A313,1)</f>
         <v>41821</v>
@@ -10878,7 +10880,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="39"/>
       <c r="B315" s="20" t="s">
         <v>201</v>
@@ -10898,7 +10900,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="39"/>
       <c r="B316" s="20" t="s">
         <v>70</v>
@@ -10920,7 +10922,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40">
         <f>EDATE(A314,1)</f>
         <v>41852</v>
@@ -10941,7 +10943,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <f t="shared" si="7"/>
         <v>41883</v>
@@ -10968,7 +10970,7 @@
         <v>41906</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40">
         <f t="shared" si="7"/>
         <v>41913</v>
@@ -10995,7 +10997,7 @@
         <v>41929</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="39"/>
       <c r="B320" s="20" t="s">
         <v>78</v>
@@ -11015,7 +11017,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40">
         <f>EDATE(A319,1)</f>
         <v>41944</v>
@@ -11042,7 +11044,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <f t="shared" si="7"/>
         <v>41974</v>
@@ -11063,7 +11065,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="49" t="s">
         <v>224</v>
       </c>
@@ -11081,7 +11083,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40">
         <f>EDATE(A322,1)</f>
         <v>42005</v>
@@ -11102,7 +11104,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
         <f t="shared" si="7"/>
         <v>42036</v>
@@ -11123,7 +11125,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40">
         <f t="shared" si="7"/>
         <v>42064</v>
@@ -11148,7 +11150,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
         <f t="shared" si="7"/>
         <v>42095</v>
@@ -11169,7 +11171,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
         <f t="shared" si="7"/>
         <v>42125</v>
@@ -11190,7 +11192,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
         <f t="shared" si="7"/>
         <v>42156</v>
@@ -11211,7 +11213,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40">
         <f t="shared" si="7"/>
         <v>42186</v>
@@ -11232,7 +11234,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40">
         <f t="shared" si="7"/>
         <v>42217</v>
@@ -11253,7 +11255,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40">
         <f t="shared" si="7"/>
         <v>42248</v>
@@ -11274,7 +11276,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
         <f t="shared" si="7"/>
         <v>42278</v>
@@ -11301,7 +11303,7 @@
         <v>42304</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40">
         <f t="shared" si="7"/>
         <v>42309</v>
@@ -11322,7 +11324,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
         <f t="shared" si="7"/>
         <v>42339</v>
@@ -11349,7 +11351,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="49" t="s">
         <v>225</v>
       </c>
@@ -11367,7 +11369,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
         <f>EDATE(A335,1)</f>
         <v>42370</v>
@@ -11388,7 +11390,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40">
         <f t="shared" si="7"/>
         <v>42401</v>
@@ -11409,7 +11411,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40">
         <f t="shared" si="7"/>
         <v>42430</v>
@@ -11436,7 +11438,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40">
         <f t="shared" si="7"/>
         <v>42461</v>
@@ -11457,7 +11459,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40">
         <f t="shared" si="7"/>
         <v>42491</v>
@@ -11478,7 +11480,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40">
         <f t="shared" si="7"/>
         <v>42522</v>
@@ -11499,7 +11501,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40">
         <f t="shared" si="7"/>
         <v>42552</v>
@@ -11520,7 +11522,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40">
         <f t="shared" si="7"/>
         <v>42583</v>
@@ -11541,7 +11543,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40">
         <f t="shared" si="7"/>
         <v>42614</v>
@@ -11562,7 +11564,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40">
         <f t="shared" si="7"/>
         <v>42644</v>
@@ -11587,7 +11589,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40">
         <f t="shared" si="7"/>
         <v>42675</v>
@@ -11608,7 +11610,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40">
         <f t="shared" si="7"/>
         <v>42705</v>
@@ -11635,7 +11637,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="39"/>
       <c r="B349" s="20" t="s">
         <v>256</v>
@@ -11657,7 +11659,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="49" t="s">
         <v>226</v>
       </c>
@@ -11675,7 +11677,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40">
         <f>EDATE(A348,1)</f>
         <v>42736</v>
@@ -11696,7 +11698,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40">
         <f t="shared" si="7"/>
         <v>42767</v>
@@ -11717,7 +11719,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40">
         <f t="shared" si="7"/>
         <v>42795</v>
@@ -11738,7 +11740,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40">
         <f t="shared" si="7"/>
         <v>42826</v>
@@ -11759,7 +11761,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40">
         <f t="shared" si="7"/>
         <v>42856</v>
@@ -11780,7 +11782,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40">
         <f t="shared" si="7"/>
         <v>42887</v>
@@ -11801,7 +11803,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40">
         <f t="shared" si="7"/>
         <v>42917</v>
@@ -11822,7 +11824,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40">
         <f t="shared" si="7"/>
         <v>42948</v>
@@ -11843,7 +11845,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40">
         <f t="shared" si="7"/>
         <v>42979</v>
@@ -11864,7 +11866,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40">
         <f t="shared" si="7"/>
         <v>43009</v>
@@ -11891,7 +11893,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="39"/>
       <c r="B361" s="20" t="s">
         <v>257</v>
@@ -11911,7 +11913,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="39"/>
       <c r="B362" s="20" t="s">
         <v>156</v>
@@ -11931,7 +11933,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40">
         <f>EDATE(A360,1)</f>
         <v>43040</v>
@@ -11952,7 +11954,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40">
         <f t="shared" si="7"/>
         <v>43070</v>
@@ -11973,7 +11975,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="49" t="s">
         <v>227</v>
       </c>
@@ -11991,7 +11993,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40">
         <f>EDATE(A364,1)</f>
         <v>43101</v>
@@ -12012,7 +12014,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40">
         <f t="shared" si="7"/>
         <v>43132</v>
@@ -12033,7 +12035,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40">
         <f t="shared" si="7"/>
         <v>43160</v>
@@ -12054,7 +12056,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40">
         <f t="shared" si="7"/>
         <v>43191</v>
@@ -12075,7 +12077,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40">
         <f t="shared" si="7"/>
         <v>43221</v>
@@ -12096,7 +12098,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40">
         <f t="shared" si="7"/>
         <v>43252</v>
@@ -12117,7 +12119,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
         <f t="shared" si="7"/>
         <v>43282</v>
@@ -12138,7 +12140,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40">
         <f t="shared" si="7"/>
         <v>43313</v>
@@ -12159,7 +12161,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40">
         <f t="shared" si="7"/>
         <v>43344</v>
@@ -12180,7 +12182,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40">
         <f t="shared" si="7"/>
         <v>43374</v>
@@ -12207,7 +12209,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40">
         <f t="shared" si="7"/>
         <v>43405</v>
@@ -12228,7 +12230,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40">
         <f t="shared" si="7"/>
         <v>43435</v>
@@ -12253,7 +12255,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="49" t="s">
         <v>228</v>
       </c>
@@ -12271,7 +12273,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40">
         <f>EDATE(A377,1)</f>
         <v>43466</v>
@@ -12298,7 +12300,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
         <f t="shared" si="7"/>
         <v>43497</v>
@@ -12319,7 +12321,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40">
         <f t="shared" si="7"/>
         <v>43525</v>
@@ -12340,7 +12342,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
         <f t="shared" si="7"/>
         <v>43556</v>
@@ -12361,7 +12363,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
         <f t="shared" si="7"/>
         <v>43586</v>
@@ -12382,7 +12384,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40">
         <f t="shared" si="7"/>
         <v>43617</v>
@@ -12407,7 +12409,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="39"/>
       <c r="B385" s="20" t="s">
         <v>86</v>
@@ -12427,7 +12429,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40">
         <f>EDATE(A384,1)</f>
         <v>43647</v>
@@ -12448,7 +12450,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40">
         <f t="shared" si="7"/>
         <v>43678</v>
@@ -12469,7 +12471,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40">
         <f t="shared" si="7"/>
         <v>43709</v>
@@ -12494,7 +12496,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40">
         <f t="shared" si="7"/>
         <v>43739</v>
@@ -12517,7 +12519,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="39"/>
       <c r="B390" s="20" t="s">
         <v>127</v>
@@ -12537,7 +12539,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40">
         <f>EDATE(A389,1)</f>
         <v>43770</v>
@@ -12558,7 +12560,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40">
         <f t="shared" ref="A392:A433" si="8">EDATE(A391,1)</f>
         <v>43800</v>
@@ -12583,7 +12585,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="49" t="s">
         <v>229</v>
       </c>
@@ -12601,7 +12603,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40">
         <f>EDATE(A392,1)</f>
         <v>43831</v>
@@ -12622,7 +12624,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40">
         <f t="shared" si="8"/>
         <v>43862</v>
@@ -12647,7 +12649,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40">
         <f>EDATE(A395,1)</f>
         <v>43891</v>
@@ -12668,7 +12670,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
         <f t="shared" si="8"/>
         <v>43922</v>
@@ -12689,7 +12691,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40">
         <f t="shared" si="8"/>
         <v>43952</v>
@@ -12710,7 +12712,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40">
         <f t="shared" si="8"/>
         <v>43983</v>
@@ -12731,7 +12733,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40">
         <f t="shared" si="8"/>
         <v>44013</v>
@@ -12752,7 +12754,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40">
         <f t="shared" si="8"/>
         <v>44044</v>
@@ -12773,7 +12775,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40">
         <f t="shared" si="8"/>
         <v>44075</v>
@@ -12794,7 +12796,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40">
         <f t="shared" si="8"/>
         <v>44105</v>
@@ -12815,7 +12817,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
         <f t="shared" si="8"/>
         <v>44136</v>
@@ -12842,7 +12844,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40">
         <f t="shared" si="8"/>
         <v>44166</v>
@@ -12863,7 +12865,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="49" t="s">
         <v>230</v>
       </c>
@@ -12881,7 +12883,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40">
         <f>EDATE(A405,1)</f>
         <v>44197</v>
@@ -12906,7 +12908,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40">
         <f t="shared" si="8"/>
         <v>44228</v>
@@ -12927,7 +12929,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40">
         <f t="shared" si="8"/>
         <v>44256</v>
@@ -12948,7 +12950,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40">
         <f t="shared" si="8"/>
         <v>44287</v>
@@ -12969,7 +12971,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40">
         <f t="shared" si="8"/>
         <v>44317</v>
@@ -12990,7 +12992,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40">
         <f t="shared" si="8"/>
         <v>44348</v>
@@ -13011,7 +13013,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40">
         <f t="shared" si="8"/>
         <v>44378</v>
@@ -13032,7 +13034,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40">
         <f t="shared" si="8"/>
         <v>44409</v>
@@ -13053,7 +13055,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40">
         <f t="shared" si="8"/>
         <v>44440</v>
@@ -13074,7 +13076,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40">
         <f t="shared" si="8"/>
         <v>44470</v>
@@ -13095,7 +13097,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40">
         <f t="shared" si="8"/>
         <v>44501</v>
@@ -13116,7 +13118,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40">
         <f t="shared" si="8"/>
         <v>44531</v>
@@ -13141,7 +13143,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="49" t="s">
         <v>231</v>
       </c>
@@ -13159,7 +13161,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40">
         <f>EDATE(A418,1)</f>
         <v>44562</v>
@@ -13180,7 +13182,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
         <f t="shared" si="8"/>
         <v>44593</v>
@@ -13201,7 +13203,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40">
         <f t="shared" si="8"/>
         <v>44621</v>
@@ -13228,7 +13230,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="39"/>
       <c r="B423" s="20" t="s">
         <v>127</v>
@@ -13250,7 +13252,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="39"/>
       <c r="B424" s="20" t="s">
         <v>53</v>
@@ -13272,7 +13274,7 @@
         <v>44659</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40">
         <f>EDATE(A422,1)</f>
         <v>44652</v>
@@ -13293,7 +13295,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40">
         <f t="shared" si="8"/>
         <v>44682</v>
@@ -13314,7 +13316,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40">
         <f t="shared" si="8"/>
         <v>44713</v>
@@ -13335,7 +13337,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40">
         <f t="shared" si="8"/>
         <v>44743</v>
@@ -13356,7 +13358,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40">
         <f t="shared" si="8"/>
         <v>44774</v>
@@ -13377,7 +13379,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40">
         <f t="shared" si="8"/>
         <v>44805</v>
@@ -13398,7 +13400,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40">
         <f t="shared" si="8"/>
         <v>44835</v>
@@ -13419,7 +13421,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40">
         <f t="shared" si="8"/>
         <v>44866</v>
@@ -13440,7 +13442,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40">
         <f t="shared" si="8"/>
         <v>44896</v>
@@ -13467,7 +13469,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40"/>
       <c r="B434" s="20" t="s">
         <v>134</v>
@@ -13487,7 +13489,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="56" t="s">
         <v>276</v>
       </c>
@@ -13505,7 +13507,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40">
         <v>44927</v>
       </c>
@@ -13525,7 +13527,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40">
         <v>44958</v>
       </c>
@@ -13549,7 +13551,7 @@
         <v>44984</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40">
         <v>44986</v>
       </c>
@@ -13569,29 +13571,33 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40">
         <v>45017</v>
       </c>
       <c r="B439" s="20"/>
-      <c r="C439" s="13"/>
+      <c r="C439" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D439" s="38"/>
       <c r="E439" s="9"/>
       <c r="F439" s="20"/>
-      <c r="G439" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G439" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H439" s="38"/>
       <c r="I439" s="9"/>
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40">
         <v>45047</v>
       </c>
-      <c r="B440" s="20"/>
+      <c r="B440" s="20" t="s">
+        <v>78</v>
+      </c>
       <c r="C440" s="13"/>
       <c r="D440" s="38"/>
       <c r="E440" s="9"/>
@@ -13603,15 +13609,19 @@
       <c r="H440" s="38"/>
       <c r="I440" s="9"/>
       <c r="J440" s="11"/>
-      <c r="K440" s="20"/>
-    </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A441" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B441" s="20"/>
+      <c r="K440" s="20" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A441" s="40"/>
+      <c r="B441" s="20" t="s">
+        <v>86</v>
+      </c>
       <c r="C441" s="13"/>
-      <c r="D441" s="38"/>
+      <c r="D441" s="38">
+        <v>1</v>
+      </c>
       <c r="E441" s="9"/>
       <c r="F441" s="20"/>
       <c r="G441" s="13" t="str">
@@ -13621,11 +13631,13 @@
       <c r="H441" s="38"/>
       <c r="I441" s="9"/>
       <c r="J441" s="11"/>
-      <c r="K441" s="20"/>
-    </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K441" s="51">
+        <v>45058</v>
+      </c>
+    </row>
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B442" s="20"/>
       <c r="C442" s="13"/>
@@ -13641,9 +13653,9 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B443" s="20"/>
       <c r="C443" s="13"/>
@@ -13659,9 +13671,9 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B444" s="20"/>
       <c r="C444" s="13"/>
@@ -13677,9 +13689,9 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B445" s="20"/>
       <c r="C445" s="13"/>
@@ -13695,9 +13707,9 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B446" s="20"/>
       <c r="C446" s="13"/>
@@ -13713,9 +13725,9 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B447" s="20"/>
       <c r="C447" s="13"/>
@@ -13731,9 +13743,9 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B448" s="20"/>
       <c r="C448" s="13"/>
@@ -13749,9 +13761,9 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B449" s="20"/>
       <c r="C449" s="13"/>
@@ -13767,9 +13779,9 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B450" s="20"/>
       <c r="C450" s="13"/>
@@ -13785,9 +13797,9 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B451" s="20"/>
       <c r="C451" s="13"/>
@@ -13803,9 +13815,9 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B452" s="20"/>
       <c r="C452" s="13"/>
@@ -13821,9 +13833,9 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B453" s="20"/>
       <c r="C453" s="13"/>
@@ -13839,9 +13851,9 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B454" s="20"/>
       <c r="C454" s="13"/>
@@ -13857,9 +13869,9 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B455" s="20"/>
       <c r="C455" s="13"/>
@@ -13875,9 +13887,9 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B456" s="20"/>
       <c r="C456" s="13"/>
@@ -13893,9 +13905,9 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B457" s="20"/>
       <c r="C457" s="13"/>
@@ -13911,9 +13923,9 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B458" s="20"/>
       <c r="C458" s="13"/>
@@ -13929,9 +13941,9 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B459" s="20"/>
       <c r="C459" s="13"/>
@@ -13947,9 +13959,9 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B460" s="20"/>
       <c r="C460" s="13"/>
@@ -13965,9 +13977,9 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B461" s="20"/>
       <c r="C461" s="13"/>
@@ -13983,9 +13995,9 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B462" s="20"/>
       <c r="C462" s="13"/>
@@ -14001,9 +14013,9 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B463" s="20"/>
       <c r="C463" s="13"/>
@@ -14019,9 +14031,9 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B464" s="20"/>
       <c r="C464" s="13"/>
@@ -14037,9 +14049,9 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B465" s="20"/>
       <c r="C465" s="13"/>
@@ -14055,9 +14067,9 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B466" s="20"/>
       <c r="C466" s="13"/>
@@ -14073,9 +14085,9 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B467" s="20"/>
       <c r="C467" s="13"/>
@@ -14091,9 +14103,9 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B468" s="20"/>
       <c r="C468" s="13"/>
@@ -14109,9 +14121,9 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B469" s="20"/>
       <c r="C469" s="13"/>
@@ -14127,9 +14139,9 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B470" s="20"/>
       <c r="C470" s="13"/>
@@ -14145,9 +14157,9 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B471" s="20"/>
       <c r="C471" s="13"/>
@@ -14163,9 +14175,9 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B472" s="20"/>
       <c r="C472" s="13"/>
@@ -14181,9 +14193,9 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B473" s="20"/>
       <c r="C473" s="13"/>
@@ -14199,9 +14211,9 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B474" s="20"/>
       <c r="C474" s="13"/>
@@ -14216,6 +14228,24 @@
       <c r="I474" s="9"/>
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
+    </row>
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A475" s="40">
+        <v>46082</v>
+      </c>
+      <c r="B475" s="20"/>
+      <c r="C475" s="13"/>
+      <c r="D475" s="38"/>
+      <c r="E475" s="9"/>
+      <c r="F475" s="20"/>
+      <c r="G475" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H475" s="38"/>
+      <c r="I475" s="9"/>
+      <c r="J475" s="11"/>
+      <c r="K475" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -14233,10 +14263,10 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -14259,7 +14289,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -14267,21 +14297,21 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="36" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="36" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="67" t="s">
         <v>33</v>
       </c>
@@ -14294,7 +14324,7 @@
       <c r="K1" s="68"/>
       <c r="L1" s="68"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>24</v>
       </c>
@@ -14323,7 +14353,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3">
@@ -14349,17 +14379,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="32"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>278</v>
       </c>
@@ -14383,10 +14413,10 @@
       <c r="K6" s="68"/>
       <c r="L6" s="68"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>448.95799999999997</v>
+        <v>450.45799999999997</v>
       </c>
       <c r="C7" s="36">
         <v>1</v>
@@ -14414,7 +14444,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="36">
         <v>2</v>
       </c>
@@ -14440,7 +14470,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="36">
         <v>3</v>
       </c>
@@ -14466,7 +14496,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="36">
         <v>4</v>
       </c>
@@ -14492,7 +14522,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="36">
         <v>5</v>
       </c>
@@ -14518,7 +14548,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="36">
         <v>6</v>
       </c>
@@ -14544,7 +14574,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="36">
         <v>7</v>
       </c>
@@ -14570,7 +14600,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="36">
         <v>8</v>
       </c>
@@ -14596,7 +14626,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="36">
         <v>9</v>
       </c>
@@ -14616,7 +14646,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="36">
         <v>10</v>
       </c>
@@ -14636,7 +14666,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="36">
         <v>11</v>
       </c>
@@ -14656,7 +14686,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="36">
         <v>12</v>
       </c>
@@ -14677,7 +14707,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="36">
         <v>13</v>
       </c>
@@ -14698,7 +14728,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="36">
         <v>14</v>
       </c>
@@ -14719,7 +14749,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="36">
         <v>15</v>
       </c>
@@ -14740,7 +14770,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="36">
         <v>16</v>
       </c>
@@ -14761,7 +14791,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="36">
         <v>17</v>
       </c>
@@ -14782,7 +14812,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="36">
         <v>18</v>
       </c>
@@ -14803,7 +14833,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="36">
         <v>19</v>
       </c>
@@ -14824,7 +14854,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="36">
         <v>20</v>
       </c>
@@ -14845,7 +14875,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="36">
         <v>21</v>
       </c>
@@ -14866,7 +14896,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="36">
         <v>22</v>
       </c>
@@ -14887,7 +14917,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="36">
         <v>23</v>
       </c>
@@ -14908,7 +14938,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="36">
         <v>24</v>
       </c>
@@ -14929,7 +14959,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="36">
         <v>25</v>
       </c>
@@ -14950,7 +14980,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="36">
         <v>26</v>
       </c>
@@ -14971,7 +15001,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="36">
         <v>27</v>
       </c>
@@ -14992,7 +15022,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="36">
         <v>28</v>
       </c>
@@ -15013,7 +15043,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="36">
         <v>29</v>
       </c>
@@ -15034,7 +15064,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="36">
         <v>30</v>
       </c>
@@ -15055,7 +15085,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="36">
         <v>31</v>
       </c>
@@ -15076,7 +15106,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="36">
         <v>32</v>
       </c>
@@ -15085,7 +15115,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="36">
         <v>33</v>
       </c>
@@ -15094,7 +15124,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="36">
         <v>34</v>
       </c>
@@ -15103,7 +15133,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="36">
         <v>35</v>
       </c>
@@ -15112,7 +15142,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="36">
         <v>36</v>
       </c>
@@ -15121,7 +15151,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="36">
         <v>37</v>
       </c>
@@ -15130,7 +15160,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="36">
         <v>38</v>
       </c>
@@ -15139,7 +15169,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="36">
         <v>39</v>
       </c>
@@ -15148,7 +15178,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="36">
         <v>40</v>
       </c>
@@ -15157,7 +15187,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="36">
         <v>41</v>
       </c>
@@ -15166,7 +15196,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="36">
         <v>42</v>
       </c>
@@ -15175,7 +15205,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="36">
         <v>43</v>
       </c>
@@ -15184,7 +15214,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="36">
         <v>44</v>
       </c>
@@ -15193,7 +15223,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="36">
         <v>45</v>
       </c>
@@ -15202,7 +15232,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="36">
         <v>46</v>
       </c>
@@ -15211,7 +15241,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="36">
         <v>47</v>
       </c>
@@ -15220,7 +15250,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="36">
         <v>48</v>
       </c>
@@ -15229,7 +15259,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="36">
         <v>49</v>
       </c>
@@ -15238,7 +15268,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="36">
         <v>50</v>
       </c>
@@ -15247,7 +15277,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="36">
         <v>51</v>
       </c>
@@ -15256,7 +15286,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="36">
         <v>52</v>
       </c>
@@ -15265,7 +15295,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="36">
         <v>53</v>
       </c>
@@ -15274,7 +15304,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="36">
         <v>54</v>
       </c>
@@ -15283,7 +15313,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="36">
         <v>55</v>
       </c>
@@ -15292,7 +15322,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="36">
         <v>56</v>
       </c>
@@ -15301,7 +15331,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="36">
         <v>57</v>
       </c>
@@ -15310,7 +15340,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="36">
         <v>58</v>
       </c>
@@ -15319,7 +15349,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="36">
         <v>59</v>
       </c>
@@ -15328,7 +15358,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="36">
         <v>60</v>
       </c>
@@ -15337,7 +15367,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/OJT/NEW DONE/PANGANIBAN CRISTETA.xlsx
+++ b/REGULAR/OJT/NEW DONE/PANGANIBAN CRISTETA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8BE2DB-83DA-4F66-9C1D-2F913E02895E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="281">
   <si>
     <t>PERIOD</t>
   </si>
@@ -874,12 +875,15 @@
   </si>
   <si>
     <t>DOMESTIC 5/26/2023</t>
+  </si>
+  <si>
+    <t>7/3-5/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1784,7 +1788,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1827,7 +1831,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1891,7 +1895,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1951,7 +1955,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2017,7 +2021,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2080,7 +2084,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2178,7 +2182,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2237,7 +2241,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2302,7 +2306,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2345,7 +2349,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2420,7 +2424,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2606,7 +2610,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2672,7 +2676,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2730,7 +2734,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2796,7 +2800,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2852,7 +2856,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2927,7 +2931,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2970,7 +2974,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3036,7 +3040,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3092,7 +3096,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3190,7 +3194,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3253,7 +3257,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3302,7 +3306,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3319,25 +3323,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K475" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K475" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3349,13 +3353,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3364,14 +3368,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3675,7 +3679,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3685,7 +3689,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3693,34 +3697,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K475"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <pane ySplit="3900" topLeftCell="A433" activePane="bottomLeft"/>
+      <pane ySplit="3900" topLeftCell="A436" activePane="bottomLeft"/>
       <selection activeCell="L1" sqref="L1:P1048576"/>
-      <selection pane="bottomLeft" activeCell="B442" sqref="B442"/>
+      <selection pane="bottomLeft" activeCell="B443" sqref="B443"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="29" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="29" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="32.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="29" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="29" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="32.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
         <v>9</v>
       </c>
@@ -3743,7 +3747,7 @@
       <c r="J2" s="59"/>
       <c r="K2" s="60"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3763,7 +3767,7 @@
       <c r="J3" s="61"/>
       <c r="K3" s="62"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3785,7 +3789,7 @@
       <c r="J4" s="63"/>
       <c r="K4" s="64"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="26" t="s">
         <v>18</v>
@@ -3793,7 +3797,7 @@
       <c r="I5" s="26"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="30"/>
@@ -3806,7 +3810,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="57" t="s">
@@ -3823,7 +3827,7 @@
       <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3858,7 +3862,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="53"/>
       <c r="B9" s="23" t="s">
         <v>23</v>
@@ -3867,7 +3871,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>197.458</v>
+        <v>196.958</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3877,12 +3881,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>253</v>
+        <v>255.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="54" t="s">
         <v>42</v>
       </c>
@@ -3906,7 +3910,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="54" t="s">
         <v>44</v>
       </c>
@@ -3927,7 +3931,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="49" t="s">
         <v>46</v>
       </c>
@@ -3945,7 +3949,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="39">
         <v>35065</v>
       </c>
@@ -3965,7 +3969,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="39">
         <f>EDATE(A13,1)</f>
         <v>35096</v>
@@ -3986,7 +3990,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="39">
         <f t="shared" ref="A15:A85" si="0">EDATE(A14,1)</f>
         <v>35125</v>
@@ -4013,7 +4017,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="39">
         <f t="shared" si="0"/>
         <v>35156</v>
@@ -4034,7 +4038,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="39">
         <f t="shared" si="0"/>
         <v>35186</v>
@@ -4055,7 +4059,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="39">
         <f t="shared" si="0"/>
         <v>35217</v>
@@ -4082,7 +4086,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="39">
         <f t="shared" si="0"/>
         <v>35247</v>
@@ -4103,7 +4107,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="39">
         <f t="shared" si="0"/>
         <v>35278</v>
@@ -4124,7 +4128,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="39">
         <f t="shared" si="0"/>
         <v>35309</v>
@@ -4151,7 +4155,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="39">
         <f t="shared" si="0"/>
         <v>35339</v>
@@ -4172,7 +4176,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="39">
         <f t="shared" si="0"/>
         <v>35370</v>
@@ -4193,7 +4197,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="39">
         <f t="shared" si="0"/>
         <v>35400</v>
@@ -4214,7 +4218,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="49" t="s">
         <v>50</v>
       </c>
@@ -4234,7 +4238,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="39">
         <f>EDATE(A24,1)</f>
         <v>35431</v>
@@ -4255,7 +4259,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="39">
         <f t="shared" si="0"/>
         <v>35462</v>
@@ -4276,7 +4280,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="39">
         <f t="shared" si="0"/>
         <v>35490</v>
@@ -4303,7 +4307,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="39">
         <f t="shared" si="0"/>
         <v>35521</v>
@@ -4330,7 +4334,7 @@
         <v>35707</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="39">
         <f t="shared" si="0"/>
         <v>35551</v>
@@ -4351,7 +4355,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="39">
         <f t="shared" si="0"/>
         <v>35582</v>
@@ -4376,7 +4380,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="39">
         <f t="shared" si="0"/>
         <v>35612</v>
@@ -4397,7 +4401,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="39">
         <f t="shared" si="0"/>
         <v>35643</v>
@@ -4418,7 +4422,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="39">
         <f t="shared" si="0"/>
         <v>35674</v>
@@ -4439,7 +4443,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="39">
         <f t="shared" si="0"/>
         <v>35704</v>
@@ -4464,7 +4468,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="39">
         <f t="shared" si="0"/>
         <v>35735</v>
@@ -4489,7 +4493,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="39">
         <f t="shared" si="0"/>
         <v>35765</v>
@@ -4510,7 +4514,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="49" t="s">
         <v>49</v>
       </c>
@@ -4528,7 +4532,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="39">
         <f>EDATE(A37,1)</f>
         <v>35796</v>
@@ -4549,7 +4553,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="39">
         <f t="shared" si="0"/>
         <v>35827</v>
@@ -4570,7 +4574,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="39">
         <f t="shared" si="0"/>
         <v>35855</v>
@@ -4597,7 +4601,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="39">
         <f t="shared" si="0"/>
         <v>35886</v>
@@ -4618,7 +4622,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="39">
         <f t="shared" si="0"/>
         <v>35916</v>
@@ -4639,7 +4643,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="39">
         <f t="shared" si="0"/>
         <v>35947</v>
@@ -4660,7 +4664,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="39">
         <f t="shared" si="0"/>
         <v>35977</v>
@@ -4681,7 +4685,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="39">
         <f t="shared" si="0"/>
         <v>36008</v>
@@ -4702,7 +4706,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="39">
         <f t="shared" si="0"/>
         <v>36039</v>
@@ -4729,7 +4733,7 @@
         <v>36047</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="39"/>
       <c r="B48" s="20" t="s">
         <v>61</v>
@@ -4747,7 +4751,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="51"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="39">
         <f>EDATE(A47,1)</f>
         <v>36069</v>
@@ -4772,7 +4776,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="39">
         <f t="shared" si="0"/>
         <v>36100</v>
@@ -4799,7 +4803,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="39"/>
       <c r="B51" s="20" t="s">
         <v>64</v>
@@ -4819,7 +4823,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="39">
         <f>EDATE(A50,1)</f>
         <v>36130</v>
@@ -4846,7 +4850,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="39"/>
       <c r="B53" s="20" t="s">
         <v>67</v>
@@ -4866,7 +4870,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="49" t="s">
         <v>48</v>
       </c>
@@ -4884,7 +4888,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="39">
         <f>EDATE(A52,1)</f>
         <v>36161</v>
@@ -4911,7 +4915,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="39"/>
       <c r="B56" s="20" t="s">
         <v>69</v>
@@ -4931,7 +4935,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="39">
         <f>EDATE(A55,1)</f>
         <v>36192</v>
@@ -4958,7 +4962,7 @@
         <v>36162</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="39">
         <f t="shared" si="0"/>
         <v>36220</v>
@@ -4985,7 +4989,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="39"/>
       <c r="B59" s="20" t="s">
         <v>63</v>
@@ -5007,7 +5011,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="39"/>
       <c r="B60" s="20" t="s">
         <v>53</v>
@@ -5029,7 +5033,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="39"/>
       <c r="B61" s="20" t="s">
         <v>71</v>
@@ -5049,7 +5053,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="39">
         <f>EDATE(A58,1)</f>
         <v>36251</v>
@@ -5076,7 +5080,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="39"/>
       <c r="B63" s="20" t="s">
         <v>72</v>
@@ -5096,7 +5100,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="39">
         <f>EDATE(A62,1)</f>
         <v>36281</v>
@@ -5121,7 +5125,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="39">
         <f t="shared" si="0"/>
         <v>36312</v>
@@ -5146,7 +5150,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="39"/>
       <c r="B66" s="20" t="s">
         <v>80</v>
@@ -5166,7 +5170,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="39">
         <f>EDATE(A65,1)</f>
         <v>36342</v>
@@ -5191,7 +5195,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="39">
         <f t="shared" si="0"/>
         <v>36373</v>
@@ -5218,7 +5222,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="39"/>
       <c r="B69" s="20" t="s">
         <v>81</v>
@@ -5238,7 +5242,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="39">
         <f>EDATE(A68,1)</f>
         <v>36404</v>
@@ -5263,7 +5267,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="39">
         <f t="shared" si="0"/>
         <v>36434</v>
@@ -5290,7 +5294,7 @@
         <v>36504</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="39"/>
       <c r="B72" s="20" t="s">
         <v>78</v>
@@ -5312,7 +5316,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="39">
         <f>EDATE(A71,1)</f>
         <v>36465</v>
@@ -5337,7 +5341,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="39">
         <f t="shared" si="0"/>
         <v>36495</v>
@@ -5362,7 +5366,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="39"/>
       <c r="B75" s="20" t="s">
         <v>63</v>
@@ -5382,7 +5386,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="39"/>
       <c r="B76" s="20" t="s">
         <v>87</v>
@@ -5402,7 +5406,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="49" t="s">
         <v>47</v>
       </c>
@@ -5417,7 +5421,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="39">
         <f>EDATE(A74,1)</f>
         <v>36526</v>
@@ -5442,7 +5446,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="39">
         <f t="shared" si="0"/>
         <v>36557</v>
@@ -5467,7 +5471,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="39">
         <f t="shared" si="0"/>
         <v>36586</v>
@@ -5492,7 +5496,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="39">
         <f t="shared" si="0"/>
         <v>36617</v>
@@ -5513,7 +5517,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="39">
         <f t="shared" si="0"/>
         <v>36647</v>
@@ -5540,7 +5544,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="39"/>
       <c r="B83" s="20" t="s">
         <v>92</v>
@@ -5560,7 +5564,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="39">
         <f>EDATE(A82,1)</f>
         <v>36678</v>
@@ -5585,7 +5589,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="39">
         <f t="shared" si="0"/>
         <v>36708</v>
@@ -5612,7 +5616,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="39"/>
       <c r="B86" s="20" t="s">
         <v>95</v>
@@ -5632,7 +5636,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="39">
         <f>EDATE(A85,1)</f>
         <v>36739</v>
@@ -5659,7 +5663,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="39"/>
       <c r="B88" s="20" t="s">
         <v>53</v>
@@ -5683,7 +5687,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="39"/>
       <c r="B89" s="20" t="s">
         <v>96</v>
@@ -5703,7 +5707,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="39">
         <f>EDATE(A87,1)</f>
         <v>36770</v>
@@ -5724,7 +5728,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="39">
         <f>EDATE(A90,1)</f>
         <v>36800</v>
@@ -5751,7 +5755,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="39">
         <f>EDATE(A91,1)</f>
         <v>36831</v>
@@ -5778,7 +5782,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="39">
         <f>EDATE(A92,1)</f>
         <v>36861</v>
@@ -5799,7 +5803,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="49" t="s">
         <v>97</v>
       </c>
@@ -5817,7 +5821,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="39">
         <f t="shared" ref="A95" si="1">EDATE(A93,1)</f>
         <v>36892</v>
@@ -5838,7 +5842,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="39">
         <f t="shared" ref="A96:A101" si="2">EDATE(A95,1)</f>
         <v>36923</v>
@@ -5859,7 +5863,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="39">
         <f t="shared" si="2"/>
         <v>36951</v>
@@ -5886,7 +5890,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="39">
         <f t="shared" si="2"/>
         <v>36982</v>
@@ -5907,7 +5911,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="39">
         <f t="shared" si="2"/>
         <v>37012</v>
@@ -5934,7 +5938,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="39">
         <f t="shared" si="2"/>
         <v>37043</v>
@@ -5955,7 +5959,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="39">
         <f t="shared" si="2"/>
         <v>37073</v>
@@ -5982,7 +5986,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="39"/>
       <c r="B102" s="20" t="s">
         <v>70</v>
@@ -6004,7 +6008,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="39">
         <f>EDATE(A101,1)</f>
         <v>37104</v>
@@ -6031,7 +6035,7 @@
         <v>37111</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="39"/>
       <c r="B104" s="20" t="s">
         <v>53</v>
@@ -6053,7 +6057,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="39"/>
       <c r="B105" s="20" t="s">
         <v>53</v>
@@ -6075,7 +6079,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="39">
         <f>EDATE(A103,1)</f>
         <v>37135</v>
@@ -6102,7 +6106,7 @@
         <v>37081</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="39"/>
       <c r="B107" s="20" t="s">
         <v>53</v>
@@ -6124,7 +6128,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="39">
         <f>EDATE(A106,1)</f>
         <v>37165</v>
@@ -6151,7 +6155,7 @@
         <v>37144</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="39"/>
       <c r="B109" s="20" t="s">
         <v>78</v>
@@ -6171,7 +6175,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="39">
         <f>EDATE(A108,1)</f>
         <v>37196</v>
@@ -6198,7 +6202,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="39">
         <f t="shared" ref="A111:A126" si="3">EDATE(A110,1)</f>
         <v>37226</v>
@@ -6225,7 +6229,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="39"/>
       <c r="B112" s="20" t="s">
         <v>115</v>
@@ -6247,7 +6251,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="49" t="s">
         <v>105</v>
       </c>
@@ -6265,7 +6269,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="39">
         <f>EDATE(A111,1)</f>
         <v>37257</v>
@@ -6292,7 +6296,7 @@
         <v>37469</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="39">
         <f>EDATE(A114,1)</f>
         <v>37288</v>
@@ -6313,7 +6317,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="39">
         <f>EDATE(A115,1)</f>
         <v>37316</v>
@@ -6340,7 +6344,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="39">
         <f t="shared" si="3"/>
         <v>37347</v>
@@ -6361,7 +6365,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="39">
         <f t="shared" si="3"/>
         <v>37377</v>
@@ -6388,7 +6392,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="39"/>
       <c r="B119" s="20" t="s">
         <v>78</v>
@@ -6408,7 +6412,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="39">
         <f>EDATE(A118,1)</f>
         <v>37408</v>
@@ -6429,7 +6433,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="39">
         <f t="shared" si="3"/>
         <v>37438</v>
@@ -6450,7 +6454,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="39">
         <f t="shared" si="3"/>
         <v>37469</v>
@@ -6477,7 +6481,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="39">
         <f t="shared" si="3"/>
         <v>37500</v>
@@ -6498,7 +6502,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="39">
         <f t="shared" si="3"/>
         <v>37530</v>
@@ -6525,7 +6529,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="39">
         <f t="shared" si="3"/>
         <v>37561</v>
@@ -6552,7 +6556,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="39">
         <f t="shared" si="3"/>
         <v>37591</v>
@@ -6579,7 +6583,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="39"/>
       <c r="B127" s="20" t="s">
         <v>134</v>
@@ -6599,7 +6603,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="49" t="s">
         <v>106</v>
       </c>
@@ -6617,7 +6621,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="39">
         <f>EDATE(A126,1)</f>
         <v>37622</v>
@@ -6644,7 +6648,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="39"/>
       <c r="B130" s="20" t="s">
         <v>53</v>
@@ -6668,7 +6672,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="39">
         <f>EDATE(A129,1)</f>
         <v>37653</v>
@@ -6695,7 +6699,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="39"/>
       <c r="B132" s="20" t="s">
         <v>53</v>
@@ -6717,7 +6721,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="39"/>
       <c r="B133" s="20" t="s">
         <v>53</v>
@@ -6739,7 +6743,7 @@
         <v>37683</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="39">
         <f>EDATE(A131,1)</f>
         <v>37681</v>
@@ -6766,7 +6770,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="39">
         <f t="shared" ref="A135:A210" si="4">EDATE(A134,1)</f>
         <v>37712</v>
@@ -6793,7 +6797,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="39">
         <f t="shared" si="4"/>
         <v>37742</v>
@@ -6814,7 +6818,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="39">
         <f t="shared" si="4"/>
         <v>37773</v>
@@ -6835,7 +6839,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="39">
         <f t="shared" si="4"/>
         <v>37803</v>
@@ -6862,7 +6866,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="39">
         <f t="shared" si="4"/>
         <v>37834</v>
@@ -6889,7 +6893,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="39"/>
       <c r="B140" s="20" t="s">
         <v>70</v>
@@ -6911,7 +6915,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="39">
         <f>EDATE(A139,1)</f>
         <v>37865</v>
@@ -6938,7 +6942,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="39">
         <f t="shared" si="4"/>
         <v>37895</v>
@@ -6965,7 +6969,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="39"/>
       <c r="B143" s="20" t="s">
         <v>70</v>
@@ -6987,7 +6991,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="39"/>
       <c r="B144" s="20" t="s">
         <v>78</v>
@@ -7009,7 +7013,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="39">
         <f>EDATE(A142,1)</f>
         <v>37926</v>
@@ -7030,7 +7034,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="39">
         <f t="shared" si="4"/>
         <v>37956</v>
@@ -7057,7 +7061,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="49" t="s">
         <v>107</v>
       </c>
@@ -7075,7 +7079,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="39">
         <f>EDATE(A146,1)</f>
         <v>37987</v>
@@ -7102,7 +7106,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="39"/>
       <c r="B149" s="20" t="s">
         <v>70</v>
@@ -7124,7 +7128,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="39"/>
       <c r="B150" s="20" t="s">
         <v>53</v>
@@ -7146,7 +7150,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="39"/>
       <c r="B151" s="20" t="s">
         <v>53</v>
@@ -7168,7 +7172,7 @@
         <v>38048</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="39">
         <f>EDATE(A148,1)</f>
         <v>38018</v>
@@ -7189,7 +7193,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="39">
         <f t="shared" si="4"/>
         <v>38047</v>
@@ -7210,7 +7214,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="39">
         <f t="shared" si="4"/>
         <v>38078</v>
@@ -7231,7 +7235,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="39">
         <f t="shared" si="4"/>
         <v>38108</v>
@@ -7252,7 +7256,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="39">
         <f t="shared" si="4"/>
         <v>38139</v>
@@ -7273,7 +7277,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="39">
         <f t="shared" si="4"/>
         <v>38169</v>
@@ -7300,7 +7304,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="39">
         <f t="shared" si="4"/>
         <v>38200</v>
@@ -7325,7 +7329,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="39"/>
       <c r="B159" s="20" t="s">
         <v>86</v>
@@ -7347,7 +7351,7 @@
         <v>38238</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="39">
         <f>EDATE(A158,1)</f>
         <v>38231</v>
@@ -7368,7 +7372,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="39">
         <f t="shared" si="4"/>
         <v>38261</v>
@@ -7393,7 +7397,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="39">
         <f t="shared" si="4"/>
         <v>38292</v>
@@ -7414,7 +7418,7 @@
       <c r="J162" s="12"/>
       <c r="K162" s="15"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="39">
         <f t="shared" si="4"/>
         <v>38322</v>
@@ -7441,7 +7445,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="49" t="s">
         <v>108</v>
       </c>
@@ -7459,7 +7463,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="39">
         <f>EDATE(A163,1)</f>
         <v>38353</v>
@@ -7480,7 +7484,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="39">
         <f t="shared" si="4"/>
         <v>38384</v>
@@ -7501,7 +7505,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="39">
         <f t="shared" si="4"/>
         <v>38412</v>
@@ -7522,7 +7526,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="39">
         <f t="shared" si="4"/>
         <v>38443</v>
@@ -7543,7 +7547,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="39">
         <f t="shared" si="4"/>
         <v>38473</v>
@@ -7570,7 +7574,7 @@
         <v>38447</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="39">
         <f t="shared" si="4"/>
         <v>38504</v>
@@ -7597,7 +7601,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="39">
         <f t="shared" si="4"/>
         <v>38534</v>
@@ -7624,7 +7628,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="39">
         <f t="shared" si="4"/>
         <v>38565</v>
@@ -7645,7 +7649,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="39">
         <f t="shared" si="4"/>
         <v>38596</v>
@@ -7672,7 +7676,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="39">
         <f t="shared" si="4"/>
         <v>38626</v>
@@ -7697,7 +7701,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="39"/>
       <c r="B175" s="20" t="s">
         <v>53</v>
@@ -7719,7 +7723,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="39">
         <f>EDATE(A174,1)</f>
         <v>38657</v>
@@ -7746,7 +7750,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="39">
         <f t="shared" si="4"/>
         <v>38687</v>
@@ -7767,7 +7771,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="49" t="s">
         <v>109</v>
       </c>
@@ -7785,7 +7789,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="39">
         <f>EDATE(A177,1)</f>
         <v>38718</v>
@@ -7812,7 +7816,7 @@
         <v>38657</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="39">
         <f t="shared" si="4"/>
         <v>38749</v>
@@ -7837,7 +7841,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="39">
         <f t="shared" si="4"/>
         <v>38777</v>
@@ -7864,7 +7868,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="39">
         <f t="shared" si="4"/>
         <v>38808</v>
@@ -7891,7 +7895,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="39">
         <f t="shared" si="4"/>
         <v>38838</v>
@@ -7912,7 +7916,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="39">
         <f t="shared" si="4"/>
         <v>38869</v>
@@ -7933,7 +7937,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="39">
         <f t="shared" si="4"/>
         <v>38899</v>
@@ -7954,7 +7958,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="39">
         <f t="shared" si="4"/>
         <v>38930</v>
@@ -7981,7 +7985,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="39">
         <f t="shared" si="4"/>
         <v>38961</v>
@@ -8002,7 +8006,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="39">
         <f t="shared" si="4"/>
         <v>38991</v>
@@ -8027,7 +8031,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="39"/>
       <c r="B189" s="20" t="s">
         <v>59</v>
@@ -8049,7 +8053,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="39">
         <f>EDATE(A188,1)</f>
         <v>39022</v>
@@ -8070,7 +8074,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="39">
         <f t="shared" si="4"/>
         <v>39052</v>
@@ -8097,7 +8101,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="49" t="s">
         <v>110</v>
       </c>
@@ -8115,7 +8119,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="39">
         <f>EDATE(A191,1)</f>
         <v>39083</v>
@@ -8136,7 +8140,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="39">
         <f t="shared" si="4"/>
         <v>39114</v>
@@ -8157,7 +8161,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="39">
         <f t="shared" si="4"/>
         <v>39142</v>
@@ -8184,7 +8188,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="39">
         <f t="shared" si="4"/>
         <v>39173</v>
@@ -8205,7 +8209,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="39">
         <f t="shared" si="4"/>
         <v>39203</v>
@@ -8232,7 +8236,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="39">
         <f t="shared" si="4"/>
         <v>39234</v>
@@ -8257,7 +8261,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="39">
         <f t="shared" si="4"/>
         <v>39264</v>
@@ -8284,7 +8288,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="39"/>
       <c r="B200" s="20" t="s">
         <v>78</v>
@@ -8306,7 +8310,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="39">
         <f>EDATE(A199,1)</f>
         <v>39295</v>
@@ -8331,7 +8335,7 @@
         <v>39181</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="39">
         <f t="shared" si="4"/>
         <v>39326</v>
@@ -8352,7 +8356,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="39">
         <f t="shared" si="4"/>
         <v>39356</v>
@@ -8379,7 +8383,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="39"/>
       <c r="B204" s="20" t="s">
         <v>134</v>
@@ -8403,7 +8407,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="39">
         <f>EDATE(A203,1)</f>
         <v>39387</v>
@@ -8430,7 +8434,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="39"/>
       <c r="B206" s="20" t="s">
         <v>59</v>
@@ -8454,7 +8458,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="39">
         <f>EDATE(A205,1)</f>
         <v>39417</v>
@@ -8475,7 +8479,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="49" t="s">
         <v>112</v>
       </c>
@@ -8493,7 +8497,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="39">
         <f>EDATE(A207,1)</f>
         <v>39448</v>
@@ -8520,7 +8524,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="39">
         <f t="shared" si="4"/>
         <v>39479</v>
@@ -8541,7 +8545,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="39">
         <f t="shared" ref="A211:A225" si="5">EDATE(A210,1)</f>
         <v>39508</v>
@@ -8566,7 +8570,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="39"/>
       <c r="B212" s="20" t="s">
         <v>70</v>
@@ -8588,7 +8592,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="39"/>
       <c r="B213" s="20" t="s">
         <v>78</v>
@@ -8608,7 +8612,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="39">
         <f>EDATE(A211,1)</f>
         <v>39539</v>
@@ -8635,7 +8639,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="39">
         <f t="shared" si="5"/>
         <v>39569</v>
@@ -8662,7 +8666,7 @@
         <v>39573</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="39"/>
       <c r="B216" s="20" t="s">
         <v>53</v>
@@ -8684,7 +8688,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="39"/>
       <c r="B217" s="20" t="s">
         <v>171</v>
@@ -8704,7 +8708,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="39">
         <f>EDATE(A215,1)</f>
         <v>39600</v>
@@ -8731,7 +8735,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="39"/>
       <c r="B219" s="20" t="s">
         <v>172</v>
@@ -8751,7 +8755,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="39">
         <f>EDATE(A218,1)</f>
         <v>39630</v>
@@ -8778,7 +8782,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="39"/>
       <c r="B221" s="20" t="s">
         <v>127</v>
@@ -8800,7 +8804,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="39"/>
       <c r="B222" s="20" t="s">
         <v>70</v>
@@ -8822,7 +8826,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="39">
         <f>EDATE(A220,1)</f>
         <v>39661</v>
@@ -8849,7 +8853,7 @@
         <v>39760</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="39">
         <f t="shared" si="5"/>
         <v>39692</v>
@@ -8870,7 +8874,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="39">
         <f t="shared" si="5"/>
         <v>39722</v>
@@ -8897,7 +8901,7 @@
         <v>39731</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="39"/>
       <c r="B226" s="20" t="s">
         <v>171</v>
@@ -8917,7 +8921,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="39">
         <f>EDATE(A225,1)</f>
         <v>39753</v>
@@ -8942,7 +8946,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="39"/>
       <c r="B228" s="20" t="s">
         <v>171</v>
@@ -8962,7 +8966,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="39">
         <f>EDATE(A227,1)</f>
         <v>39783</v>
@@ -8989,7 +8993,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="49" t="s">
         <v>111</v>
       </c>
@@ -9007,7 +9011,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="39">
         <f>EDATE(A229,1)</f>
         <v>39814</v>
@@ -9032,7 +9036,7 @@
         <v>39905</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40">
         <f>EDATE(A231,1)</f>
         <v>39845</v>
@@ -9059,7 +9063,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="39"/>
       <c r="B233" s="20" t="s">
         <v>78</v>
@@ -9079,7 +9083,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40">
         <f>EDATE(A232,1)</f>
         <v>39873</v>
@@ -9104,7 +9108,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="39"/>
       <c r="B235" s="20" t="s">
         <v>202</v>
@@ -9124,7 +9128,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="39"/>
       <c r="B236" s="20" t="s">
         <v>171</v>
@@ -9144,7 +9148,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="39"/>
       <c r="B237" s="20" t="s">
         <v>171</v>
@@ -9164,7 +9168,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40">
         <f>EDATE(A234,1)</f>
         <v>39904</v>
@@ -9185,7 +9189,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40">
         <f t="shared" ref="A239:A313" si="6">EDATE(A238,1)</f>
         <v>39934</v>
@@ -9206,7 +9210,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40">
         <f t="shared" si="6"/>
         <v>39965</v>
@@ -9233,7 +9237,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40">
         <f t="shared" si="6"/>
         <v>39995</v>
@@ -9254,7 +9258,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40">
         <f t="shared" si="6"/>
         <v>40026</v>
@@ -9275,7 +9279,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40">
         <f t="shared" si="6"/>
         <v>40057</v>
@@ -9302,7 +9306,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40">
         <f t="shared" si="6"/>
         <v>40087</v>
@@ -9329,7 +9333,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40">
         <f t="shared" si="6"/>
         <v>40118</v>
@@ -9350,7 +9354,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40">
         <f t="shared" si="6"/>
         <v>40148</v>
@@ -9377,7 +9381,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="49" t="s">
         <v>207</v>
       </c>
@@ -9395,7 +9399,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40">
         <f>EDATE(A246,1)</f>
         <v>40179</v>
@@ -9420,7 +9424,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40">
         <f t="shared" si="6"/>
         <v>40210</v>
@@ -9445,7 +9449,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="39"/>
       <c r="B250" s="20" t="s">
         <v>212</v>
@@ -9467,7 +9471,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="39"/>
       <c r="B251" s="20" t="s">
         <v>212</v>
@@ -9489,7 +9493,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="40">
         <f>EDATE(A249,1)</f>
         <v>40238</v>
@@ -9510,7 +9514,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40">
         <f t="shared" si="6"/>
         <v>40269</v>
@@ -9531,7 +9535,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40">
         <f t="shared" si="6"/>
         <v>40299</v>
@@ -9556,7 +9560,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40">
         <f t="shared" si="6"/>
         <v>40330</v>
@@ -9577,7 +9581,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40">
         <f t="shared" si="6"/>
         <v>40360</v>
@@ -9598,7 +9602,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40">
         <f t="shared" si="6"/>
         <v>40391</v>
@@ -9619,7 +9623,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40">
         <f t="shared" si="6"/>
         <v>40422</v>
@@ -9640,7 +9644,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40">
         <f t="shared" si="6"/>
         <v>40452</v>
@@ -9665,7 +9669,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40">
         <f t="shared" si="6"/>
         <v>40483</v>
@@ -9692,7 +9696,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40">
         <f t="shared" si="6"/>
         <v>40513</v>
@@ -9713,7 +9717,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="49" t="s">
         <v>220</v>
       </c>
@@ -9731,7 +9735,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40">
         <f>EDATE(A261,1)</f>
         <v>40544</v>
@@ -9752,7 +9756,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="40">
         <f t="shared" si="6"/>
         <v>40575</v>
@@ -9777,7 +9781,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="40">
         <f t="shared" si="6"/>
         <v>40603</v>
@@ -9804,7 +9808,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="40">
         <f t="shared" si="6"/>
         <v>40634</v>
@@ -9825,7 +9829,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40">
         <f t="shared" si="6"/>
         <v>40664</v>
@@ -9846,7 +9850,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40">
         <f t="shared" si="6"/>
         <v>40695</v>
@@ -9867,7 +9871,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40">
         <f t="shared" si="6"/>
         <v>40725</v>
@@ -9888,7 +9892,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40">
         <f t="shared" si="6"/>
         <v>40756</v>
@@ -9909,7 +9913,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="40">
         <f t="shared" si="6"/>
         <v>40787</v>
@@ -9936,7 +9940,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="39"/>
       <c r="B272" s="20" t="s">
         <v>78</v>
@@ -9956,7 +9960,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40">
         <f>EDATE(A271,1)</f>
         <v>40817</v>
@@ -9977,7 +9981,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="40">
         <f t="shared" si="6"/>
         <v>40848</v>
@@ -10002,7 +10006,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="39"/>
       <c r="B275" s="20" t="s">
         <v>212</v>
@@ -10024,7 +10028,7 @@
         <v>40868</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="39"/>
       <c r="B276" s="20" t="s">
         <v>234</v>
@@ -10046,7 +10050,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40">
         <f>EDATE(A274,1)</f>
         <v>40878</v>
@@ -10067,7 +10071,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="49" t="s">
         <v>221</v>
       </c>
@@ -10085,7 +10089,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40">
         <f>EDATE(A277,1)</f>
         <v>40909</v>
@@ -10110,7 +10114,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="39"/>
       <c r="B280" s="20" t="s">
         <v>240</v>
@@ -10132,7 +10136,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="39"/>
       <c r="B281" s="20" t="s">
         <v>53</v>
@@ -10154,7 +10158,7 @@
         <v>40924</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40">
         <f>EDATE(A279,1)</f>
         <v>40940</v>
@@ -10179,7 +10183,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40">
         <f t="shared" si="6"/>
         <v>40969</v>
@@ -10200,7 +10204,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40">
         <f t="shared" si="6"/>
         <v>41000</v>
@@ -10221,7 +10225,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="40">
         <f t="shared" si="6"/>
         <v>41030</v>
@@ -10242,7 +10246,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40">
         <f t="shared" si="6"/>
         <v>41061</v>
@@ -10263,7 +10267,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40">
         <f t="shared" si="6"/>
         <v>41091</v>
@@ -10290,7 +10294,7 @@
         <v>41096</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="40">
         <f t="shared" si="6"/>
         <v>41122</v>
@@ -10311,7 +10315,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40">
         <f t="shared" si="6"/>
         <v>41153</v>
@@ -10332,7 +10336,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40">
         <f t="shared" si="6"/>
         <v>41183</v>
@@ -10359,7 +10363,7 @@
         <v>41211</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="40">
         <f t="shared" si="6"/>
         <v>41214</v>
@@ -10386,7 +10390,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="39"/>
       <c r="B292" s="20" t="s">
         <v>163</v>
@@ -10408,7 +10412,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40">
         <f>EDATE(A291,1)</f>
         <v>41244</v>
@@ -10429,7 +10433,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="49" t="s">
         <v>222</v>
       </c>
@@ -10447,7 +10451,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40">
         <f>EDATE(A293,1)</f>
         <v>41275</v>
@@ -10468,7 +10472,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="40">
         <f t="shared" si="6"/>
         <v>41306</v>
@@ -10489,7 +10493,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40">
         <f t="shared" si="6"/>
         <v>41334</v>
@@ -10510,7 +10514,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40">
         <f t="shared" si="6"/>
         <v>41365</v>
@@ -10531,7 +10535,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40">
         <f t="shared" si="6"/>
         <v>41395</v>
@@ -10552,7 +10556,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40">
         <f t="shared" si="6"/>
         <v>41426</v>
@@ -10573,7 +10577,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="40">
         <f t="shared" si="6"/>
         <v>41456</v>
@@ -10600,7 +10604,7 @@
         <v>41481</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40">
         <f t="shared" si="6"/>
         <v>41487</v>
@@ -10621,7 +10625,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="40">
         <f t="shared" si="6"/>
         <v>41518</v>
@@ -10642,7 +10646,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="40">
         <f t="shared" si="6"/>
         <v>41548</v>
@@ -10663,7 +10667,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40">
         <f t="shared" si="6"/>
         <v>41579</v>
@@ -10684,7 +10688,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40">
         <f t="shared" si="6"/>
         <v>41609</v>
@@ -10711,7 +10715,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="49" t="s">
         <v>223</v>
       </c>
@@ -10729,7 +10733,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40">
         <f>EDATE(A306,1)</f>
         <v>41640</v>
@@ -10750,7 +10754,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="40">
         <f t="shared" si="6"/>
         <v>41671</v>
@@ -10771,7 +10775,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="40">
         <f t="shared" si="6"/>
         <v>41699</v>
@@ -10792,7 +10796,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40">
         <f t="shared" si="6"/>
         <v>41730</v>
@@ -10813,7 +10817,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40">
         <f t="shared" si="6"/>
         <v>41760</v>
@@ -10834,7 +10838,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="40">
         <f t="shared" si="6"/>
         <v>41791</v>
@@ -10855,7 +10859,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="40">
         <f t="shared" ref="A314:A389" si="7">EDATE(A313,1)</f>
         <v>41821</v>
@@ -10880,7 +10884,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="39"/>
       <c r="B315" s="20" t="s">
         <v>201</v>
@@ -10900,7 +10904,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="39"/>
       <c r="B316" s="20" t="s">
         <v>70</v>
@@ -10922,7 +10926,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="40">
         <f>EDATE(A314,1)</f>
         <v>41852</v>
@@ -10943,7 +10947,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40">
         <f t="shared" si="7"/>
         <v>41883</v>
@@ -10970,7 +10974,7 @@
         <v>41906</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="40">
         <f t="shared" si="7"/>
         <v>41913</v>
@@ -10997,7 +11001,7 @@
         <v>41929</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="39"/>
       <c r="B320" s="20" t="s">
         <v>78</v>
@@ -11017,7 +11021,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40">
         <f>EDATE(A319,1)</f>
         <v>41944</v>
@@ -11044,7 +11048,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40">
         <f t="shared" si="7"/>
         <v>41974</v>
@@ -11065,7 +11069,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="49" t="s">
         <v>224</v>
       </c>
@@ -11083,7 +11087,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40">
         <f>EDATE(A322,1)</f>
         <v>42005</v>
@@ -11104,7 +11108,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40">
         <f t="shared" si="7"/>
         <v>42036</v>
@@ -11125,7 +11129,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40">
         <f t="shared" si="7"/>
         <v>42064</v>
@@ -11150,7 +11154,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40">
         <f t="shared" si="7"/>
         <v>42095</v>
@@ -11171,7 +11175,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40">
         <f t="shared" si="7"/>
         <v>42125</v>
@@ -11192,7 +11196,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40">
         <f t="shared" si="7"/>
         <v>42156</v>
@@ -11213,7 +11217,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="40">
         <f t="shared" si="7"/>
         <v>42186</v>
@@ -11234,7 +11238,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="40">
         <f t="shared" si="7"/>
         <v>42217</v>
@@ -11255,7 +11259,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40">
         <f t="shared" si="7"/>
         <v>42248</v>
@@ -11276,7 +11280,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="40">
         <f t="shared" si="7"/>
         <v>42278</v>
@@ -11303,7 +11307,7 @@
         <v>42304</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40">
         <f t="shared" si="7"/>
         <v>42309</v>
@@ -11324,7 +11328,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40">
         <f t="shared" si="7"/>
         <v>42339</v>
@@ -11351,7 +11355,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="49" t="s">
         <v>225</v>
       </c>
@@ -11369,7 +11373,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="40">
         <f>EDATE(A335,1)</f>
         <v>42370</v>
@@ -11390,7 +11394,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40">
         <f t="shared" si="7"/>
         <v>42401</v>
@@ -11411,7 +11415,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="40">
         <f t="shared" si="7"/>
         <v>42430</v>
@@ -11438,7 +11442,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="40">
         <f t="shared" si="7"/>
         <v>42461</v>
@@ -11459,7 +11463,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40">
         <f t="shared" si="7"/>
         <v>42491</v>
@@ -11480,7 +11484,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40">
         <f t="shared" si="7"/>
         <v>42522</v>
@@ -11501,7 +11505,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40">
         <f t="shared" si="7"/>
         <v>42552</v>
@@ -11522,7 +11526,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40">
         <f t="shared" si="7"/>
         <v>42583</v>
@@ -11543,7 +11547,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="40">
         <f t="shared" si="7"/>
         <v>42614</v>
@@ -11564,7 +11568,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="40">
         <f t="shared" si="7"/>
         <v>42644</v>
@@ -11589,7 +11593,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="40">
         <f t="shared" si="7"/>
         <v>42675</v>
@@ -11610,7 +11614,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="40">
         <f t="shared" si="7"/>
         <v>42705</v>
@@ -11637,7 +11641,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="39"/>
       <c r="B349" s="20" t="s">
         <v>256</v>
@@ -11659,7 +11663,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="49" t="s">
         <v>226</v>
       </c>
@@ -11677,7 +11681,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40">
         <f>EDATE(A348,1)</f>
         <v>42736</v>
@@ -11698,7 +11702,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="40">
         <f t="shared" si="7"/>
         <v>42767</v>
@@ -11719,7 +11723,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40">
         <f t="shared" si="7"/>
         <v>42795</v>
@@ -11740,7 +11744,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="40">
         <f t="shared" si="7"/>
         <v>42826</v>
@@ -11761,7 +11765,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40">
         <f t="shared" si="7"/>
         <v>42856</v>
@@ -11782,7 +11786,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="40">
         <f t="shared" si="7"/>
         <v>42887</v>
@@ -11803,7 +11807,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="40">
         <f t="shared" si="7"/>
         <v>42917</v>
@@ -11824,7 +11828,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40">
         <f t="shared" si="7"/>
         <v>42948</v>
@@ -11845,7 +11849,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="40">
         <f t="shared" si="7"/>
         <v>42979</v>
@@ -11866,7 +11870,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40">
         <f t="shared" si="7"/>
         <v>43009</v>
@@ -11893,7 +11897,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="39"/>
       <c r="B361" s="20" t="s">
         <v>257</v>
@@ -11913,7 +11917,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="39"/>
       <c r="B362" s="20" t="s">
         <v>156</v>
@@ -11933,7 +11937,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="40">
         <f>EDATE(A360,1)</f>
         <v>43040</v>
@@ -11954,7 +11958,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="40">
         <f t="shared" si="7"/>
         <v>43070</v>
@@ -11975,7 +11979,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="49" t="s">
         <v>227</v>
       </c>
@@ -11993,7 +11997,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="40">
         <f>EDATE(A364,1)</f>
         <v>43101</v>
@@ -12014,7 +12018,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="40">
         <f t="shared" si="7"/>
         <v>43132</v>
@@ -12035,7 +12039,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40">
         <f t="shared" si="7"/>
         <v>43160</v>
@@ -12056,7 +12060,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="40">
         <f t="shared" si="7"/>
         <v>43191</v>
@@ -12077,7 +12081,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40">
         <f t="shared" si="7"/>
         <v>43221</v>
@@ -12098,7 +12102,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="40">
         <f t="shared" si="7"/>
         <v>43252</v>
@@ -12119,7 +12123,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="40">
         <f t="shared" si="7"/>
         <v>43282</v>
@@ -12140,7 +12144,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="40">
         <f t="shared" si="7"/>
         <v>43313</v>
@@ -12161,7 +12165,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="40">
         <f t="shared" si="7"/>
         <v>43344</v>
@@ -12182,7 +12186,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="40">
         <f t="shared" si="7"/>
         <v>43374</v>
@@ -12209,7 +12213,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="40">
         <f t="shared" si="7"/>
         <v>43405</v>
@@ -12230,7 +12234,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40">
         <f t="shared" si="7"/>
         <v>43435</v>
@@ -12255,7 +12259,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="49" t="s">
         <v>228</v>
       </c>
@@ -12273,7 +12277,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="40">
         <f>EDATE(A377,1)</f>
         <v>43466</v>
@@ -12300,7 +12304,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40">
         <f t="shared" si="7"/>
         <v>43497</v>
@@ -12321,7 +12325,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="40">
         <f t="shared" si="7"/>
         <v>43525</v>
@@ -12342,7 +12346,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="40">
         <f t="shared" si="7"/>
         <v>43556</v>
@@ -12363,7 +12367,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="40">
         <f t="shared" si="7"/>
         <v>43586</v>
@@ -12384,7 +12388,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="40">
         <f t="shared" si="7"/>
         <v>43617</v>
@@ -12409,7 +12413,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="39"/>
       <c r="B385" s="20" t="s">
         <v>86</v>
@@ -12429,7 +12433,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40">
         <f>EDATE(A384,1)</f>
         <v>43647</v>
@@ -12450,7 +12454,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="40">
         <f t="shared" si="7"/>
         <v>43678</v>
@@ -12471,7 +12475,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="40">
         <f t="shared" si="7"/>
         <v>43709</v>
@@ -12496,7 +12500,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="40">
         <f t="shared" si="7"/>
         <v>43739</v>
@@ -12519,7 +12523,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="39"/>
       <c r="B390" s="20" t="s">
         <v>127</v>
@@ -12539,7 +12543,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="40">
         <f>EDATE(A389,1)</f>
         <v>43770</v>
@@ -12560,7 +12564,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="40">
         <f t="shared" ref="A392:A433" si="8">EDATE(A391,1)</f>
         <v>43800</v>
@@ -12585,7 +12589,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="49" t="s">
         <v>229</v>
       </c>
@@ -12603,7 +12607,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="40">
         <f>EDATE(A392,1)</f>
         <v>43831</v>
@@ -12624,7 +12628,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="40">
         <f t="shared" si="8"/>
         <v>43862</v>
@@ -12649,7 +12653,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="40">
         <f>EDATE(A395,1)</f>
         <v>43891</v>
@@ -12670,7 +12674,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="40">
         <f t="shared" si="8"/>
         <v>43922</v>
@@ -12691,7 +12695,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="40">
         <f t="shared" si="8"/>
         <v>43952</v>
@@ -12712,7 +12716,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="40">
         <f t="shared" si="8"/>
         <v>43983</v>
@@ -12733,7 +12737,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="40">
         <f t="shared" si="8"/>
         <v>44013</v>
@@ -12754,7 +12758,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="40">
         <f t="shared" si="8"/>
         <v>44044</v>
@@ -12775,7 +12779,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="40">
         <f t="shared" si="8"/>
         <v>44075</v>
@@ -12796,7 +12800,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="40">
         <f t="shared" si="8"/>
         <v>44105</v>
@@ -12817,7 +12821,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="40">
         <f t="shared" si="8"/>
         <v>44136</v>
@@ -12844,7 +12848,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="40">
         <f t="shared" si="8"/>
         <v>44166</v>
@@ -12865,7 +12869,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="49" t="s">
         <v>230</v>
       </c>
@@ -12883,7 +12887,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="40">
         <f>EDATE(A405,1)</f>
         <v>44197</v>
@@ -12908,7 +12912,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="40">
         <f t="shared" si="8"/>
         <v>44228</v>
@@ -12929,7 +12933,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="40">
         <f t="shared" si="8"/>
         <v>44256</v>
@@ -12950,7 +12954,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="40">
         <f t="shared" si="8"/>
         <v>44287</v>
@@ -12971,7 +12975,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="40">
         <f t="shared" si="8"/>
         <v>44317</v>
@@ -12992,7 +12996,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="40">
         <f t="shared" si="8"/>
         <v>44348</v>
@@ -13013,7 +13017,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="40">
         <f t="shared" si="8"/>
         <v>44378</v>
@@ -13034,7 +13038,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="40">
         <f t="shared" si="8"/>
         <v>44409</v>
@@ -13055,7 +13059,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="40">
         <f t="shared" si="8"/>
         <v>44440</v>
@@ -13076,7 +13080,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="40">
         <f t="shared" si="8"/>
         <v>44470</v>
@@ -13097,7 +13101,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="40">
         <f t="shared" si="8"/>
         <v>44501</v>
@@ -13118,7 +13122,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="40">
         <f t="shared" si="8"/>
         <v>44531</v>
@@ -13143,7 +13147,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="49" t="s">
         <v>231</v>
       </c>
@@ -13161,7 +13165,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="40">
         <f>EDATE(A418,1)</f>
         <v>44562</v>
@@ -13182,7 +13186,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="40">
         <f t="shared" si="8"/>
         <v>44593</v>
@@ -13203,7 +13207,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="40">
         <f t="shared" si="8"/>
         <v>44621</v>
@@ -13230,7 +13234,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="39"/>
       <c r="B423" s="20" t="s">
         <v>127</v>
@@ -13252,7 +13256,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="39"/>
       <c r="B424" s="20" t="s">
         <v>53</v>
@@ -13274,7 +13278,7 @@
         <v>44659</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="40">
         <f>EDATE(A422,1)</f>
         <v>44652</v>
@@ -13295,7 +13299,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="40">
         <f t="shared" si="8"/>
         <v>44682</v>
@@ -13316,7 +13320,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="40">
         <f t="shared" si="8"/>
         <v>44713</v>
@@ -13337,7 +13341,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="40">
         <f t="shared" si="8"/>
         <v>44743</v>
@@ -13358,7 +13362,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="40">
         <f t="shared" si="8"/>
         <v>44774</v>
@@ -13379,7 +13383,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="40">
         <f t="shared" si="8"/>
         <v>44805</v>
@@ -13400,7 +13404,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="40">
         <f t="shared" si="8"/>
         <v>44835</v>
@@ -13421,7 +13425,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="40">
         <f t="shared" si="8"/>
         <v>44866</v>
@@ -13442,7 +13446,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="40">
         <f t="shared" si="8"/>
         <v>44896</v>
@@ -13469,7 +13473,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="40"/>
       <c r="B434" s="20" t="s">
         <v>134</v>
@@ -13489,7 +13493,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="56" t="s">
         <v>276</v>
       </c>
@@ -13507,7 +13511,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="40">
         <v>44927</v>
       </c>
@@ -13527,7 +13531,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="40">
         <v>44958</v>
       </c>
@@ -13551,7 +13555,7 @@
         <v>44984</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="40">
         <v>44986</v>
       </c>
@@ -13571,7 +13575,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="40">
         <v>45017</v>
       </c>
@@ -13591,20 +13595,22 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="40">
         <v>45047</v>
       </c>
       <c r="B440" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="C440" s="13"/>
+      <c r="C440" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D440" s="38"/>
       <c r="E440" s="9"/>
       <c r="F440" s="20"/>
-      <c r="G440" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G440" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H440" s="38"/>
       <c r="I440" s="9"/>
@@ -13613,7 +13619,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="40"/>
       <c r="B441" s="20" t="s">
         <v>86</v>
@@ -13635,25 +13641,33 @@
         <v>45058</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="40">
         <v>45078</v>
       </c>
-      <c r="B442" s="20"/>
-      <c r="C442" s="13"/>
-      <c r="D442" s="38"/>
+      <c r="B442" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C442" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D442" s="38">
+        <v>3</v>
+      </c>
       <c r="E442" s="9"/>
       <c r="F442" s="20"/>
-      <c r="G442" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G442" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H442" s="38"/>
       <c r="I442" s="9"/>
       <c r="J442" s="11"/>
-      <c r="K442" s="20"/>
-    </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K442" s="20" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="40">
         <v>45108</v>
       </c>
@@ -13671,7 +13685,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="40">
         <v>45139</v>
       </c>
@@ -13689,7 +13703,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="40">
         <v>45170</v>
       </c>
@@ -13707,7 +13721,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="40">
         <v>45200</v>
       </c>
@@ -13725,7 +13739,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="40">
         <v>45231</v>
       </c>
@@ -13743,7 +13757,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="40">
         <v>45261</v>
       </c>
@@ -13761,7 +13775,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="40">
         <v>45292</v>
       </c>
@@ -13779,7 +13793,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="40">
         <v>45323</v>
       </c>
@@ -13797,7 +13811,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="40">
         <v>45352</v>
       </c>
@@ -13815,7 +13829,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="40">
         <v>45383</v>
       </c>
@@ -13833,7 +13847,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="40">
         <v>45413</v>
       </c>
@@ -13851,7 +13865,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="40">
         <v>45444</v>
       </c>
@@ -13869,7 +13883,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="40">
         <v>45474</v>
       </c>
@@ -13887,7 +13901,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="40">
         <v>45505</v>
       </c>
@@ -13905,7 +13919,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="40">
         <v>45536</v>
       </c>
@@ -13923,7 +13937,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="40">
         <v>45566</v>
       </c>
@@ -13941,7 +13955,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="40">
         <v>45597</v>
       </c>
@@ -13959,7 +13973,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="40">
         <v>45627</v>
       </c>
@@ -13977,7 +13991,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="40">
         <v>45658</v>
       </c>
@@ -13995,7 +14009,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="40">
         <v>45689</v>
       </c>
@@ -14013,7 +14027,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="40">
         <v>45717</v>
       </c>
@@ -14031,7 +14045,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="40">
         <v>45748</v>
       </c>
@@ -14049,7 +14063,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="40">
         <v>45778</v>
       </c>
@@ -14067,7 +14081,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="40">
         <v>45809</v>
       </c>
@@ -14085,7 +14099,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="40">
         <v>45839</v>
       </c>
@@ -14103,7 +14117,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="40">
         <v>45870</v>
       </c>
@@ -14121,7 +14135,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="40">
         <v>45901</v>
       </c>
@@ -14139,7 +14153,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="40">
         <v>45931</v>
       </c>
@@ -14157,7 +14171,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="40">
         <v>45962</v>
       </c>
@@ -14175,7 +14189,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="40">
         <v>45992</v>
       </c>
@@ -14193,7 +14207,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="40">
         <v>46023</v>
       </c>
@@ -14211,7 +14225,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="40">
         <v>46054</v>
       </c>
@@ -14229,7 +14243,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="40">
         <v>46082</v>
       </c>
@@ -14263,10 +14277,10 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -14289,7 +14303,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -14297,21 +14311,21 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="36" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="36" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="67" t="s">
         <v>33</v>
       </c>
@@ -14324,7 +14338,7 @@
       <c r="K1" s="68"/>
       <c r="L1" s="68"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
         <v>24</v>
       </c>
@@ -14353,7 +14367,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3">
@@ -14379,17 +14393,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="32"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>278</v>
       </c>
@@ -14413,10 +14427,10 @@
       <c r="K6" s="68"/>
       <c r="L6" s="68"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>450.45799999999997</v>
+        <v>452.45799999999997</v>
       </c>
       <c r="C7" s="36">
         <v>1</v>
@@ -14444,7 +14458,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="36">
         <v>2</v>
       </c>
@@ -14470,7 +14484,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="36">
         <v>3</v>
       </c>
@@ -14496,7 +14510,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="36">
         <v>4</v>
       </c>
@@ -14522,7 +14536,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="36">
         <v>5</v>
       </c>
@@ -14548,7 +14562,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="36">
         <v>6</v>
       </c>
@@ -14574,7 +14588,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="36">
         <v>7</v>
       </c>
@@ -14600,7 +14614,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="36">
         <v>8</v>
       </c>
@@ -14626,7 +14640,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="36">
         <v>9</v>
       </c>
@@ -14646,7 +14660,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="36">
         <v>10</v>
       </c>
@@ -14666,7 +14680,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="36">
         <v>11</v>
       </c>
@@ -14686,7 +14700,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="36">
         <v>12</v>
       </c>
@@ -14707,7 +14721,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="36">
         <v>13</v>
       </c>
@@ -14728,7 +14742,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="36">
         <v>14</v>
       </c>
@@ -14749,7 +14763,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="36">
         <v>15</v>
       </c>
@@ -14770,7 +14784,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="36">
         <v>16</v>
       </c>
@@ -14791,7 +14805,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="36">
         <v>17</v>
       </c>
@@ -14812,7 +14826,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="36">
         <v>18</v>
       </c>
@@ -14833,7 +14847,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="36">
         <v>19</v>
       </c>
@@ -14854,7 +14868,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="36">
         <v>20</v>
       </c>
@@ -14875,7 +14889,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="36">
         <v>21</v>
       </c>
@@ -14896,7 +14910,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="36">
         <v>22</v>
       </c>
@@ -14917,7 +14931,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="36">
         <v>23</v>
       </c>
@@ -14938,7 +14952,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="36">
         <v>24</v>
       </c>
@@ -14959,7 +14973,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="36">
         <v>25</v>
       </c>
@@ -14980,7 +14994,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="36">
         <v>26</v>
       </c>
@@ -15001,7 +15015,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="36">
         <v>27</v>
       </c>
@@ -15022,7 +15036,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="36">
         <v>28</v>
       </c>
@@ -15043,7 +15057,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="36">
         <v>29</v>
       </c>
@@ -15064,7 +15078,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="36">
         <v>30</v>
       </c>
@@ -15085,7 +15099,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="36">
         <v>31</v>
       </c>
@@ -15106,7 +15120,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="36">
         <v>32</v>
       </c>
@@ -15115,7 +15129,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="36">
         <v>33</v>
       </c>
@@ -15124,7 +15138,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="36">
         <v>34</v>
       </c>
@@ -15133,7 +15147,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="36">
         <v>35</v>
       </c>
@@ -15142,7 +15156,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="36">
         <v>36</v>
       </c>
@@ -15151,7 +15165,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="36">
         <v>37</v>
       </c>
@@ -15160,7 +15174,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="36">
         <v>38</v>
       </c>
@@ -15169,7 +15183,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="36">
         <v>39</v>
       </c>
@@ -15178,7 +15192,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="36">
         <v>40</v>
       </c>
@@ -15187,7 +15201,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="36">
         <v>41</v>
       </c>
@@ -15196,7 +15210,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="36">
         <v>42</v>
       </c>
@@ -15205,7 +15219,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="36">
         <v>43</v>
       </c>
@@ -15214,7 +15228,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="36">
         <v>44</v>
       </c>
@@ -15223,7 +15237,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="36">
         <v>45</v>
       </c>
@@ -15232,7 +15246,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="36">
         <v>46</v>
       </c>
@@ -15241,7 +15255,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="36">
         <v>47</v>
       </c>
@@ -15250,7 +15264,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="36">
         <v>48</v>
       </c>
@@ -15259,7 +15273,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="36">
         <v>49</v>
       </c>
@@ -15268,7 +15282,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="36">
         <v>50</v>
       </c>
@@ -15277,7 +15291,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="36">
         <v>51</v>
       </c>
@@ -15286,7 +15300,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="36">
         <v>52</v>
       </c>
@@ -15295,7 +15309,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="36">
         <v>53</v>
       </c>
@@ -15304,7 +15318,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="36">
         <v>54</v>
       </c>
@@ -15313,7 +15327,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="36">
         <v>55</v>
       </c>
@@ -15322,7 +15336,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="36">
         <v>56</v>
       </c>
@@ -15331,7 +15345,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="36">
         <v>57</v>
       </c>
@@ -15340,7 +15354,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="36">
         <v>58</v>
       </c>
@@ -15349,7 +15363,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="36">
         <v>59</v>
       </c>
@@ -15358,7 +15372,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="36">
         <v>60</v>
       </c>
@@ -15367,7 +15381,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
